--- a/Code/Results/Cases/Case_4_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.07208569399603</v>
+        <v>26.07208569399604</v>
       </c>
       <c r="C2">
-        <v>19.59690587705147</v>
+        <v>19.59690587705142</v>
       </c>
       <c r="D2">
-        <v>9.713691986741498</v>
+        <v>9.71369198674153</v>
       </c>
       <c r="E2">
         <v>19.38564814546939</v>
@@ -427,13 +427,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>64.08137649714065</v>
+        <v>64.08137649714043</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.66818273762127</v>
+        <v>10.66818273762124</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.98806515214126</v>
+        <v>23.9880651521412</v>
       </c>
       <c r="C3">
-        <v>17.99706551133227</v>
+        <v>17.99706551133217</v>
       </c>
       <c r="D3">
-        <v>9.028347541494034</v>
+        <v>9.028347541494064</v>
       </c>
       <c r="E3">
-        <v>17.84113169892231</v>
+        <v>17.8411316989223</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.72961249849774</v>
+        <v>59.72961249849734</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.86491724229743</v>
+        <v>9.864917242297402</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.67165195842764</v>
+        <v>22.67165195842762</v>
       </c>
       <c r="C4">
-        <v>16.989845211092</v>
+        <v>16.98984521109204</v>
       </c>
       <c r="D4">
-        <v>8.614436747556031</v>
+        <v>8.614436747556013</v>
       </c>
       <c r="E4">
-        <v>16.86568233110627</v>
+        <v>16.86568233110625</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.00722802822725</v>
+        <v>57.0072280282272</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.358752023921246</v>
+        <v>9.358752023921234</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.12496049906711</v>
+        <v>22.12496049906705</v>
       </c>
       <c r="C5">
-        <v>16.57221741099458</v>
+        <v>16.57221741099464</v>
       </c>
       <c r="D5">
-        <v>8.444293318234614</v>
+        <v>8.444293318234628</v>
       </c>
       <c r="E5">
-        <v>16.4605768675037</v>
+        <v>16.46057686750366</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.88383216456386</v>
+        <v>55.88383216456339</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.148813780377754</v>
+        <v>9.148813780377804</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.03353881729497</v>
+        <v>22.03353881729486</v>
       </c>
       <c r="C6">
-        <v>16.50241333198426</v>
+        <v>16.50241333198413</v>
       </c>
       <c r="D6">
-        <v>8.415949064357672</v>
+        <v>8.415949064357621</v>
       </c>
       <c r="E6">
-        <v>16.39282983338935</v>
+        <v>16.39282983338931</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.69641767800408</v>
+        <v>55.69641767800366</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.113721274527945</v>
+        <v>9.113721274527951</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.66432172700169</v>
+        <v>22.66432172700168</v>
       </c>
       <c r="C7">
-        <v>16.98424309256838</v>
+        <v>16.98424309256862</v>
       </c>
       <c r="D7">
-        <v>8.612148247652113</v>
+        <v>8.612148247652133</v>
       </c>
       <c r="E7">
         <v>16.86025065778176</v>
@@ -617,13 +617,13 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.99213562259733</v>
+        <v>56.99213562259751</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.355936081515265</v>
+        <v>9.3559360815152</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.36050210459849</v>
+        <v>25.36050210459847</v>
       </c>
       <c r="C8">
-        <v>19.04984891210383</v>
+        <v>19.04984891210384</v>
       </c>
       <c r="D8">
-        <v>9.465438394304016</v>
+        <v>9.465438394304051</v>
       </c>
       <c r="E8">
-        <v>18.85820732499087</v>
+        <v>18.85820732499091</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.5903830688907</v>
+        <v>62.59038306889126</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.3936308247806</v>
+        <v>10.3936308247807</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.41258154354074</v>
+        <v>30.4125815435407</v>
       </c>
       <c r="C9">
-        <v>22.95493588413544</v>
+        <v>22.95493588413526</v>
       </c>
       <c r="D9">
-        <v>11.29659032024367</v>
+        <v>11.29659032024365</v>
       </c>
       <c r="E9">
-        <v>22.60593893243034</v>
+        <v>22.60593893243024</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>73.26024196649055</v>
+        <v>73.26024196649018</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.34976979300824</v>
+        <v>12.34976979300816</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.08916992484352</v>
+        <v>34.08916992484377</v>
       </c>
       <c r="C10">
-        <v>25.83349511125764</v>
+        <v>25.83349511125762</v>
       </c>
       <c r="D10">
-        <v>12.63028816167336</v>
+        <v>12.63028816167341</v>
       </c>
       <c r="E10">
-        <v>25.34022644775305</v>
+        <v>25.34022644775312</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>81.1064157850348</v>
+        <v>81.10641578503574</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.78484052210429</v>
+        <v>13.78484052210437</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.79132554512348</v>
+        <v>35.79132554512356</v>
       </c>
       <c r="C11">
-        <v>27.17884206869505</v>
+        <v>27.1788420686952</v>
       </c>
       <c r="D11">
-        <v>13.24521621072635</v>
+        <v>13.2452162107264</v>
       </c>
       <c r="E11">
-        <v>26.60906326902835</v>
+        <v>26.60906326902828</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>84.87748482884898</v>
+        <v>84.87748482884876</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.45320019269994</v>
+        <v>14.45320019269982</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.44491402315195</v>
+        <v>36.44491402315224</v>
       </c>
       <c r="C12">
-        <v>27.6977775310076</v>
+        <v>27.69777753100771</v>
       </c>
       <c r="D12">
-        <v>13.48086818202624</v>
+        <v>13.48086818202641</v>
       </c>
       <c r="E12">
-        <v>27.09686827182898</v>
+        <v>27.09686827182914</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>86.32387989875897</v>
+        <v>86.32387989875981</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.71058697413212</v>
+        <v>14.71058697413219</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.30365295159425</v>
+        <v>36.3036529515944</v>
       </c>
       <c r="C13">
-        <v>27.58550456031199</v>
+        <v>27.5855045603121</v>
       </c>
       <c r="D13">
-        <v>13.42995900834067</v>
+        <v>13.42995900834068</v>
       </c>
       <c r="E13">
-        <v>26.99140794987067</v>
+        <v>26.99140794987079</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>86.0113575773138</v>
+        <v>86.01135757731377</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.65492052224094</v>
+        <v>14.65492052224109</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.84488141870345</v>
+        <v>35.84488141870335</v>
       </c>
       <c r="C14">
-        <v>27.2213137673684</v>
+        <v>27.22131376736834</v>
       </c>
       <c r="D14">
-        <v>13.26453582045293</v>
+        <v>13.2645358204529</v>
       </c>
       <c r="E14">
-        <v>26.64902137993554</v>
+        <v>26.64902137993545</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>84.99604266539203</v>
+        <v>84.99604266539168</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.4742745038856</v>
+        <v>14.47427450388553</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.56522021483668</v>
+        <v>35.56522021483658</v>
       </c>
       <c r="C15">
-        <v>26.99963058159683</v>
+        <v>26.99963058159707</v>
       </c>
       <c r="D15">
-        <v>13.16363215452215</v>
+        <v>13.16363215452217</v>
       </c>
       <c r="E15">
         <v>26.44039112900772</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>84.3768795933578</v>
+        <v>84.37687959335729</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.36425887701148</v>
+        <v>14.36425887701138</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.97889103782007</v>
+        <v>33.97889103782026</v>
       </c>
       <c r="C16">
-        <v>25.74662633302735</v>
+        <v>25.74662633302757</v>
       </c>
       <c r="D16">
-        <v>12.59039001016658</v>
+        <v>12.59039001016685</v>
       </c>
       <c r="E16">
-        <v>25.25809334280232</v>
+        <v>25.25809334280241</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>80.8681906983724</v>
+        <v>80.86819069837296</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.74163166819647</v>
+        <v>13.74163166819643</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.01615552376826</v>
+        <v>33.01615552376817</v>
       </c>
       <c r="C17">
-        <v>24.98970762760583</v>
+        <v>24.98970762760575</v>
       </c>
       <c r="D17">
-        <v>12.24178966716909</v>
+        <v>12.24178966716911</v>
       </c>
       <c r="E17">
-        <v>24.54141017172907</v>
+        <v>24.54141017172901</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>78.81110203933284</v>
+        <v>78.81110203933285</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.36487068507124</v>
+        <v>13.36487068507126</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.46483966965185</v>
+        <v>32.46483966965206</v>
       </c>
       <c r="C18">
-        <v>24.55739054938103</v>
+        <v>24.5573905493809</v>
       </c>
       <c r="D18">
-        <v>12.04193366089549</v>
+        <v>12.04193366089544</v>
       </c>
       <c r="E18">
-        <v>24.1312571659521</v>
+        <v>24.13125716595212</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>77.6339698920294</v>
+        <v>77.63396989203027</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.14947065827516</v>
+        <v>13.14947065827517</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.27847392283819</v>
+        <v>32.27847392283822</v>
       </c>
       <c r="C19">
-        <v>24.41143264869753</v>
+        <v>24.41143264869735</v>
       </c>
       <c r="D19">
-        <v>11.97433810085686</v>
+        <v>11.97433810085676</v>
       </c>
       <c r="E19">
-        <v>23.99265012520752</v>
+        <v>23.99265012520744</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>77.23622818316312</v>
+        <v>77.23622818316295</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.0767136982566</v>
+        <v>13.07671369825654</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.11836091776524</v>
+        <v>33.11836091776512</v>
       </c>
       <c r="C20">
-        <v>25.06994209717569</v>
+        <v>25.06994209717524</v>
       </c>
       <c r="D20">
-        <v>12.2788218493542</v>
+        <v>12.27882184935415</v>
       </c>
       <c r="E20">
-        <v>24.61746632631826</v>
+        <v>24.61746632631807</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>79.02940112254907</v>
+        <v>79.02940112254804</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.40483037436675</v>
+        <v>13.40483037436664</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.97934095768044</v>
+        <v>35.97934095768026</v>
       </c>
       <c r="C21">
-        <v>27.32798438399869</v>
+        <v>27.32798438399855</v>
       </c>
       <c r="D21">
-        <v>13.31303261095787</v>
+        <v>13.31303261095774</v>
       </c>
       <c r="E21">
-        <v>26.74935209893576</v>
+        <v>26.74935209893571</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>85.29366956166309</v>
+        <v>85.29366956166238</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.52719720606377</v>
+        <v>14.52719720606379</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.90565461296968</v>
+        <v>37.90565461296996</v>
       </c>
       <c r="C22">
-        <v>28.86259681151338</v>
+        <v>28.86259681151382</v>
       </c>
       <c r="D22">
-        <v>14.00654975299866</v>
+        <v>14.00654975299876</v>
       </c>
       <c r="E22">
-        <v>28.1884508532712</v>
+        <v>28.18845085327131</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>89.5522817726368</v>
+        <v>89.55228177263777</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.28747400331706</v>
+        <v>15.28747400331708</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.87020898764824</v>
+        <v>36.87020898764845</v>
       </c>
       <c r="C23">
-        <v>28.03618642761551</v>
+        <v>28.03618642761579</v>
       </c>
       <c r="D23">
-        <v>13.63406390760691</v>
+        <v>13.63406390760684</v>
       </c>
       <c r="E23">
-        <v>27.41448218262034</v>
+        <v>27.41448218262044</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>87.26447234608573</v>
+        <v>87.26447234608582</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.87830839553941</v>
+        <v>14.87830839553946</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.07214741690552</v>
+        <v>33.07214741690569</v>
       </c>
       <c r="C24">
-        <v>25.03365952824338</v>
+        <v>25.03365952824354</v>
       </c>
       <c r="D24">
-        <v>12.26207796985701</v>
+        <v>12.26207796985699</v>
       </c>
       <c r="E24">
-        <v>24.58307574729561</v>
+        <v>24.58307574729568</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>78.93069156515516</v>
+        <v>78.93069156515564</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.38676098765312</v>
+        <v>13.38676098765315</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.06171926025505</v>
+        <v>29.06171926025504</v>
       </c>
       <c r="C25">
-        <v>21.9056154041929</v>
+        <v>21.9056154041931</v>
       </c>
       <c r="D25">
-        <v>10.80485715375255</v>
+        <v>10.80485715375258</v>
       </c>
       <c r="E25">
-        <v>21.603007179177</v>
+        <v>21.60300717917695</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>70.39090991873765</v>
+        <v>70.39090991873709</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.82507964980041</v>
+        <v>11.82507964980036</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.07208569399604</v>
+        <v>26.07208569399603</v>
       </c>
       <c r="C2">
-        <v>19.59690587705142</v>
+        <v>19.59690587705147</v>
       </c>
       <c r="D2">
-        <v>9.71369198674153</v>
+        <v>9.713691986741498</v>
       </c>
       <c r="E2">
         <v>19.38564814546939</v>
@@ -427,13 +427,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>64.08137649714043</v>
+        <v>64.08137649714065</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.66818273762124</v>
+        <v>10.66818273762127</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.9880651521412</v>
+        <v>23.98806515214126</v>
       </c>
       <c r="C3">
-        <v>17.99706551133217</v>
+        <v>17.99706551133227</v>
       </c>
       <c r="D3">
-        <v>9.028347541494064</v>
+        <v>9.028347541494034</v>
       </c>
       <c r="E3">
-        <v>17.8411316989223</v>
+        <v>17.84113169892231</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.72961249849734</v>
+        <v>59.72961249849774</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.864917242297402</v>
+        <v>9.86491724229743</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.67165195842762</v>
+        <v>22.67165195842764</v>
       </c>
       <c r="C4">
-        <v>16.98984521109204</v>
+        <v>16.989845211092</v>
       </c>
       <c r="D4">
-        <v>8.614436747556013</v>
+        <v>8.614436747556031</v>
       </c>
       <c r="E4">
-        <v>16.86568233110625</v>
+        <v>16.86568233110627</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.0072280282272</v>
+        <v>57.00722802822725</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.358752023921234</v>
+        <v>9.358752023921246</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.12496049906705</v>
+        <v>22.12496049906711</v>
       </c>
       <c r="C5">
-        <v>16.57221741099464</v>
+        <v>16.57221741099458</v>
       </c>
       <c r="D5">
-        <v>8.444293318234628</v>
+        <v>8.444293318234614</v>
       </c>
       <c r="E5">
-        <v>16.46057686750366</v>
+        <v>16.4605768675037</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.88383216456339</v>
+        <v>55.88383216456386</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.148813780377804</v>
+        <v>9.148813780377754</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.03353881729486</v>
+        <v>22.03353881729497</v>
       </c>
       <c r="C6">
-        <v>16.50241333198413</v>
+        <v>16.50241333198426</v>
       </c>
       <c r="D6">
-        <v>8.415949064357621</v>
+        <v>8.415949064357672</v>
       </c>
       <c r="E6">
-        <v>16.39282983338931</v>
+        <v>16.39282983338935</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.69641767800366</v>
+        <v>55.69641767800408</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.113721274527951</v>
+        <v>9.113721274527945</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.66432172700168</v>
+        <v>22.66432172700169</v>
       </c>
       <c r="C7">
-        <v>16.98424309256862</v>
+        <v>16.98424309256838</v>
       </c>
       <c r="D7">
-        <v>8.612148247652133</v>
+        <v>8.612148247652113</v>
       </c>
       <c r="E7">
         <v>16.86025065778176</v>
@@ -617,13 +617,13 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.99213562259751</v>
+        <v>56.99213562259733</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.3559360815152</v>
+        <v>9.355936081515265</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.36050210459847</v>
+        <v>25.36050210459849</v>
       </c>
       <c r="C8">
-        <v>19.04984891210384</v>
+        <v>19.04984891210383</v>
       </c>
       <c r="D8">
-        <v>9.465438394304051</v>
+        <v>9.465438394304016</v>
       </c>
       <c r="E8">
-        <v>18.85820732499091</v>
+        <v>18.85820732499087</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.59038306889126</v>
+        <v>62.5903830688907</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.3936308247807</v>
+        <v>10.3936308247806</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.4125815435407</v>
+        <v>30.41258154354074</v>
       </c>
       <c r="C9">
-        <v>22.95493588413526</v>
+        <v>22.95493588413544</v>
       </c>
       <c r="D9">
-        <v>11.29659032024365</v>
+        <v>11.29659032024367</v>
       </c>
       <c r="E9">
-        <v>22.60593893243024</v>
+        <v>22.60593893243034</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>73.26024196649018</v>
+        <v>73.26024196649055</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.34976979300816</v>
+        <v>12.34976979300824</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.08916992484377</v>
+        <v>34.08916992484352</v>
       </c>
       <c r="C10">
-        <v>25.83349511125762</v>
+        <v>25.83349511125764</v>
       </c>
       <c r="D10">
-        <v>12.63028816167341</v>
+        <v>12.63028816167336</v>
       </c>
       <c r="E10">
-        <v>25.34022644775312</v>
+        <v>25.34022644775305</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>81.10641578503574</v>
+        <v>81.1064157850348</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.78484052210437</v>
+        <v>13.78484052210429</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.79132554512356</v>
+        <v>35.79132554512348</v>
       </c>
       <c r="C11">
-        <v>27.1788420686952</v>
+        <v>27.17884206869505</v>
       </c>
       <c r="D11">
-        <v>13.2452162107264</v>
+        <v>13.24521621072635</v>
       </c>
       <c r="E11">
-        <v>26.60906326902828</v>
+        <v>26.60906326902835</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>84.87748482884876</v>
+        <v>84.87748482884898</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.45320019269982</v>
+        <v>14.45320019269994</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.44491402315224</v>
+        <v>36.44491402315195</v>
       </c>
       <c r="C12">
-        <v>27.69777753100771</v>
+        <v>27.6977775310076</v>
       </c>
       <c r="D12">
-        <v>13.48086818202641</v>
+        <v>13.48086818202624</v>
       </c>
       <c r="E12">
-        <v>27.09686827182914</v>
+        <v>27.09686827182898</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>86.32387989875981</v>
+        <v>86.32387989875897</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.71058697413219</v>
+        <v>14.71058697413212</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.3036529515944</v>
+        <v>36.30365295159425</v>
       </c>
       <c r="C13">
-        <v>27.5855045603121</v>
+        <v>27.58550456031199</v>
       </c>
       <c r="D13">
-        <v>13.42995900834068</v>
+        <v>13.42995900834067</v>
       </c>
       <c r="E13">
-        <v>26.99140794987079</v>
+        <v>26.99140794987067</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>86.01135757731377</v>
+        <v>86.0113575773138</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.65492052224109</v>
+        <v>14.65492052224094</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.84488141870335</v>
+        <v>35.84488141870345</v>
       </c>
       <c r="C14">
-        <v>27.22131376736834</v>
+        <v>27.2213137673684</v>
       </c>
       <c r="D14">
-        <v>13.2645358204529</v>
+        <v>13.26453582045293</v>
       </c>
       <c r="E14">
-        <v>26.64902137993545</v>
+        <v>26.64902137993554</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>84.99604266539168</v>
+        <v>84.99604266539203</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.47427450388553</v>
+        <v>14.4742745038856</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.56522021483658</v>
+        <v>35.56522021483668</v>
       </c>
       <c r="C15">
-        <v>26.99963058159707</v>
+        <v>26.99963058159683</v>
       </c>
       <c r="D15">
-        <v>13.16363215452217</v>
+        <v>13.16363215452215</v>
       </c>
       <c r="E15">
         <v>26.44039112900772</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>84.37687959335729</v>
+        <v>84.3768795933578</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.36425887701138</v>
+        <v>14.36425887701148</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.97889103782026</v>
+        <v>33.97889103782007</v>
       </c>
       <c r="C16">
-        <v>25.74662633302757</v>
+        <v>25.74662633302735</v>
       </c>
       <c r="D16">
-        <v>12.59039001016685</v>
+        <v>12.59039001016658</v>
       </c>
       <c r="E16">
-        <v>25.25809334280241</v>
+        <v>25.25809334280232</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>80.86819069837296</v>
+        <v>80.8681906983724</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.74163166819643</v>
+        <v>13.74163166819647</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.01615552376817</v>
+        <v>33.01615552376826</v>
       </c>
       <c r="C17">
-        <v>24.98970762760575</v>
+        <v>24.98970762760583</v>
       </c>
       <c r="D17">
-        <v>12.24178966716911</v>
+        <v>12.24178966716909</v>
       </c>
       <c r="E17">
-        <v>24.54141017172901</v>
+        <v>24.54141017172907</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>78.81110203933285</v>
+        <v>78.81110203933284</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.36487068507126</v>
+        <v>13.36487068507124</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.46483966965206</v>
+        <v>32.46483966965185</v>
       </c>
       <c r="C18">
-        <v>24.5573905493809</v>
+        <v>24.55739054938103</v>
       </c>
       <c r="D18">
-        <v>12.04193366089544</v>
+        <v>12.04193366089549</v>
       </c>
       <c r="E18">
-        <v>24.13125716595212</v>
+        <v>24.1312571659521</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>77.63396989203027</v>
+        <v>77.6339698920294</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.14947065827517</v>
+        <v>13.14947065827516</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.27847392283822</v>
+        <v>32.27847392283819</v>
       </c>
       <c r="C19">
-        <v>24.41143264869735</v>
+        <v>24.41143264869753</v>
       </c>
       <c r="D19">
-        <v>11.97433810085676</v>
+        <v>11.97433810085686</v>
       </c>
       <c r="E19">
-        <v>23.99265012520744</v>
+        <v>23.99265012520752</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>77.23622818316295</v>
+        <v>77.23622818316312</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.07671369825654</v>
+        <v>13.0767136982566</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.11836091776512</v>
+        <v>33.11836091776524</v>
       </c>
       <c r="C20">
-        <v>25.06994209717524</v>
+        <v>25.06994209717569</v>
       </c>
       <c r="D20">
-        <v>12.27882184935415</v>
+        <v>12.2788218493542</v>
       </c>
       <c r="E20">
-        <v>24.61746632631807</v>
+        <v>24.61746632631826</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>79.02940112254804</v>
+        <v>79.02940112254907</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.40483037436664</v>
+        <v>13.40483037436675</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.97934095768026</v>
+        <v>35.97934095768044</v>
       </c>
       <c r="C21">
-        <v>27.32798438399855</v>
+        <v>27.32798438399869</v>
       </c>
       <c r="D21">
-        <v>13.31303261095774</v>
+        <v>13.31303261095787</v>
       </c>
       <c r="E21">
-        <v>26.74935209893571</v>
+        <v>26.74935209893576</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>85.29366956166238</v>
+        <v>85.29366956166309</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.52719720606379</v>
+        <v>14.52719720606377</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.90565461296996</v>
+        <v>37.90565461296968</v>
       </c>
       <c r="C22">
-        <v>28.86259681151382</v>
+        <v>28.86259681151338</v>
       </c>
       <c r="D22">
-        <v>14.00654975299876</v>
+        <v>14.00654975299866</v>
       </c>
       <c r="E22">
-        <v>28.18845085327131</v>
+        <v>28.1884508532712</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>89.55228177263777</v>
+        <v>89.5522817726368</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.28747400331708</v>
+        <v>15.28747400331706</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.87020898764845</v>
+        <v>36.87020898764824</v>
       </c>
       <c r="C23">
-        <v>28.03618642761579</v>
+        <v>28.03618642761551</v>
       </c>
       <c r="D23">
-        <v>13.63406390760684</v>
+        <v>13.63406390760691</v>
       </c>
       <c r="E23">
-        <v>27.41448218262044</v>
+        <v>27.41448218262034</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>87.26447234608582</v>
+        <v>87.26447234608573</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.87830839553946</v>
+        <v>14.87830839553941</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.07214741690569</v>
+        <v>33.07214741690552</v>
       </c>
       <c r="C24">
-        <v>25.03365952824354</v>
+        <v>25.03365952824338</v>
       </c>
       <c r="D24">
-        <v>12.26207796985699</v>
+        <v>12.26207796985701</v>
       </c>
       <c r="E24">
-        <v>24.58307574729568</v>
+        <v>24.58307574729561</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>78.93069156515564</v>
+        <v>78.93069156515516</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.38676098765315</v>
+        <v>13.38676098765312</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.06171926025504</v>
+        <v>29.06171926025505</v>
       </c>
       <c r="C25">
-        <v>21.9056154041931</v>
+        <v>21.9056154041929</v>
       </c>
       <c r="D25">
-        <v>10.80485715375258</v>
+        <v>10.80485715375255</v>
       </c>
       <c r="E25">
-        <v>21.60300717917695</v>
+        <v>21.603007179177</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>70.39090991873709</v>
+        <v>70.39090991873765</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.82507964980036</v>
+        <v>11.82507964980041</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.07208569399603</v>
+        <v>26.06610282291303</v>
       </c>
       <c r="C2">
-        <v>19.59690587705147</v>
+        <v>19.59005557890164</v>
       </c>
       <c r="D2">
-        <v>9.713691986741498</v>
+        <v>9.712654526150393</v>
       </c>
       <c r="E2">
-        <v>19.38564814546939</v>
+        <v>19.38352185830994</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>64.08137649714065</v>
+        <v>63.68827056425192</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>64.06593610204143</v>
       </c>
       <c r="I2">
-        <v>10.66818273762127</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.66711769570704</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.98806515214126</v>
+        <v>23.98368206139876</v>
       </c>
       <c r="C3">
-        <v>17.99706551133227</v>
+        <v>17.99189671529319</v>
       </c>
       <c r="D3">
-        <v>9.028347541494034</v>
+        <v>9.027782620612003</v>
       </c>
       <c r="E3">
-        <v>17.84113169892231</v>
+        <v>17.83961095986607</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.72961249849774</v>
+        <v>59.16016276292573</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>59.71754630292119</v>
       </c>
       <c r="I3">
-        <v>9.86491724229743</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.864163427576653</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.67165195842764</v>
+        <v>22.66814118528478</v>
       </c>
       <c r="C4">
-        <v>16.989845211092</v>
+        <v>16.98561107265312</v>
       </c>
       <c r="D4">
-        <v>8.614436747556031</v>
+        <v>8.614007584966036</v>
       </c>
       <c r="E4">
-        <v>16.86568233110627</v>
+        <v>16.86447838115821</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.00722802822725</v>
+        <v>56.31665863372719</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>56.99722490274004</v>
       </c>
       <c r="I4">
-        <v>9.358752023921246</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.358159706983143</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.12496049906711</v>
+        <v>22.12178268101707</v>
       </c>
       <c r="C5">
-        <v>16.57221741099458</v>
+        <v>16.5683446012371</v>
       </c>
       <c r="D5">
-        <v>8.444293318234614</v>
+        <v>8.443914025731484</v>
       </c>
       <c r="E5">
-        <v>16.4605768675037</v>
+        <v>16.45949124013845</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.88383216456386</v>
+        <v>55.14048065009239</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>55.87467888432</v>
       </c>
       <c r="I5">
-        <v>9.148813780377754</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.148281478869455</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.03353881729497</v>
+        <v>22.03041505077823</v>
       </c>
       <c r="C6">
-        <v>16.50241333198426</v>
+        <v>16.49859946399909</v>
       </c>
       <c r="D6">
-        <v>8.415949064357672</v>
+        <v>8.415577756060143</v>
       </c>
       <c r="E6">
-        <v>16.39282983338935</v>
+        <v>16.39176327788587</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.69641767800408</v>
+        <v>54.94408886000697</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>55.68740636189732</v>
       </c>
       <c r="I6">
-        <v>9.113721274527945</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.113198628687375</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.66432172700169</v>
+        <v>22.66081552959339</v>
       </c>
       <c r="C7">
-        <v>16.98424309256838</v>
+        <v>16.98001390053509</v>
       </c>
       <c r="D7">
-        <v>8.612148247652113</v>
+        <v>8.611719778189796</v>
       </c>
       <c r="E7">
-        <v>16.86025065778176</v>
+        <v>16.85904834370396</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.99213562259733</v>
+        <v>56.30086852700453</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>56.9821439078475</v>
       </c>
       <c r="I7">
-        <v>9.355936081515265</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.35534459556745</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.36050210459849</v>
+        <v>25.3550972121946</v>
       </c>
       <c r="C8">
-        <v>19.04984891210383</v>
+        <v>19.04360215634617</v>
       </c>
       <c r="D8">
-        <v>9.465438394304016</v>
+        <v>9.464706332492231</v>
       </c>
       <c r="E8">
-        <v>18.85820732499087</v>
+        <v>18.85630337032528</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.5903830688907</v>
+        <v>62.13902714356468</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>62.57611538068333</v>
       </c>
       <c r="I8">
-        <v>10.3936308247806</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.39268037815831</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.41258154354074</v>
+        <v>30.40224797395005</v>
       </c>
       <c r="C9">
-        <v>22.95493588413544</v>
+        <v>22.94363524255727</v>
       </c>
       <c r="D9">
-        <v>11.29659032024367</v>
+        <v>11.29469614582535</v>
       </c>
       <c r="E9">
-        <v>22.60593893243034</v>
+        <v>22.60202247860238</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>73.26024196649055</v>
+        <v>73.18532333651363</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>73.2368573014505</v>
       </c>
       <c r="I9">
-        <v>12.34976979300824</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.34777256870104</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.08916992484352</v>
+        <v>34.07374888228617</v>
       </c>
       <c r="C10">
-        <v>25.83349511125764</v>
+        <v>25.81711408158665</v>
       </c>
       <c r="D10">
-        <v>12.63028816167336</v>
+        <v>12.62730283717079</v>
       </c>
       <c r="E10">
-        <v>25.34022644775305</v>
+        <v>25.33399290221723</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>81.1064157850348</v>
+        <v>81.25812522879031</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>81.25812522879031</v>
       </c>
       <c r="I10">
-        <v>13.78484052210429</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>13.78162055264917</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.79132554512348</v>
+        <v>35.77296757528789</v>
       </c>
       <c r="C11">
-        <v>27.17884206869505</v>
+        <v>27.15956512552878</v>
       </c>
       <c r="D11">
-        <v>13.24521621072635</v>
+        <v>13.24156520387428</v>
       </c>
       <c r="E11">
-        <v>26.60906326902835</v>
+        <v>26.60139919168488</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>84.87748482884898</v>
+        <v>84.9941270181377</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>84.99412701830161</v>
       </c>
       <c r="I11">
-        <v>14.45320019269994</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14.44921919709915</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.44491402315195</v>
+        <v>36.4253086201198</v>
       </c>
       <c r="C12">
-        <v>27.6977775310076</v>
+        <v>27.67727674177102</v>
       </c>
       <c r="D12">
-        <v>13.48086818202624</v>
+        <v>13.47692750023432</v>
       </c>
       <c r="E12">
-        <v>27.09686827182898</v>
+        <v>27.08857814600337</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>86.32387989875897</v>
+        <v>86.42745106469546</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>86.42745106469559</v>
       </c>
       <c r="I12">
-        <v>14.71058697413212</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>14.70627175347266</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.30365295159425</v>
+        <v>36.28432325641639</v>
       </c>
       <c r="C13">
-        <v>27.58550456031199</v>
+        <v>27.56527397994166</v>
       </c>
       <c r="D13">
-        <v>13.42995900834067</v>
+        <v>13.42608268830025</v>
       </c>
       <c r="E13">
-        <v>26.99140794987067</v>
+        <v>26.9832571003994</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>86.0113575773138</v>
+        <v>86.11773779768534</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>86.11773779768531</v>
       </c>
       <c r="I13">
-        <v>14.65492052224094</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>14.65067971326077</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.84488141870345</v>
+        <v>35.82642389398625</v>
       </c>
       <c r="C14">
-        <v>27.2213137673684</v>
+        <v>27.20193902721876</v>
       </c>
       <c r="D14">
-        <v>13.26453582045293</v>
+        <v>13.26086184098549</v>
       </c>
       <c r="E14">
-        <v>26.64902137993554</v>
+        <v>26.64130772953766</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>84.99604266539203</v>
+        <v>85.11160646031718</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>85.11160646031716</v>
       </c>
       <c r="I14">
-        <v>14.4742745038856</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>14.47026706743242</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.56522021483668</v>
+        <v>35.54727748473064</v>
       </c>
       <c r="C15">
-        <v>26.99963058159683</v>
+        <v>26.98076178885009</v>
       </c>
       <c r="D15">
-        <v>13.16363215452215</v>
+        <v>13.16007668710567</v>
       </c>
       <c r="E15">
-        <v>26.44039112900772</v>
+        <v>26.43293307551202</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>84.3768795933578</v>
+        <v>84.49808992265925</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>84.49808992265928</v>
       </c>
       <c r="I15">
-        <v>14.36425887701148</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>14.36038772206122</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.97889103782007</v>
+        <v>33.96364605131435</v>
       </c>
       <c r="C16">
-        <v>25.74662633302735</v>
+        <v>25.73041962880671</v>
       </c>
       <c r="D16">
-        <v>12.59039001016658</v>
+        <v>12.58744381825702</v>
       </c>
       <c r="E16">
-        <v>25.25809334280232</v>
+        <v>25.2519435186317</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>80.8681906983724</v>
+        <v>81.0159704233201</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>81.01597042342796</v>
       </c>
       <c r="I16">
-        <v>13.74163166819647</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>13.73845611019507</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.01615552376826</v>
+        <v>33.0023807256911</v>
       </c>
       <c r="C17">
-        <v>24.98970762760583</v>
+        <v>24.97496033456434</v>
       </c>
       <c r="D17">
-        <v>12.24178966716909</v>
+        <v>12.239166620283</v>
       </c>
       <c r="E17">
-        <v>24.54141017172907</v>
+        <v>24.53595000872415</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>78.81110203933284</v>
+        <v>78.90169805034296</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>78.90169805034429</v>
       </c>
       <c r="I17">
-        <v>13.36487068507124</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>13.36206037172751</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.46483966965185</v>
+        <v>32.45185561851797</v>
       </c>
       <c r="C18">
-        <v>24.55739054938103</v>
+        <v>24.54343114305336</v>
       </c>
       <c r="D18">
-        <v>12.04193366089549</v>
+        <v>12.03948163102164</v>
       </c>
       <c r="E18">
-        <v>24.1312571659521</v>
+        <v>24.12616073234104</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>77.6339698920294</v>
+        <v>77.69088244690457</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>77.69088244690455</v>
       </c>
       <c r="I18">
-        <v>13.14947065827516</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>13.14685251788001</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.27847392283819</v>
+        <v>32.26574919855547</v>
       </c>
       <c r="C19">
-        <v>24.41143264869753</v>
+        <v>24.3977321177134</v>
       </c>
       <c r="D19">
-        <v>11.97433810085686</v>
+        <v>11.9719417150256</v>
       </c>
       <c r="E19">
-        <v>23.99265012520752</v>
+        <v>23.98767184415703</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>77.23622818316312</v>
+        <v>77.28159499467412</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>77.28159499467408</v>
       </c>
       <c r="I19">
-        <v>13.0767136982566</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.07415790964163</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.11836091776524</v>
+        <v>33.10443554770463</v>
       </c>
       <c r="C20">
-        <v>25.06994209717569</v>
+        <v>25.05504501971953</v>
       </c>
       <c r="D20">
-        <v>12.2788218493542</v>
+        <v>12.27616601241092</v>
       </c>
       <c r="E20">
-        <v>24.61746632631826</v>
+        <v>24.61193632209388</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>79.02940112254907</v>
+        <v>79.12616532635197</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>79.12616532635232</v>
       </c>
       <c r="I20">
-        <v>13.40483037436675</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>13.40198312356092</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.97934095768044</v>
+        <v>35.96063142932453</v>
       </c>
       <c r="C21">
-        <v>27.32798438399869</v>
+        <v>27.30836218868264</v>
       </c>
       <c r="D21">
-        <v>13.31303261095787</v>
+        <v>13.3093003665566</v>
       </c>
       <c r="E21">
-        <v>26.74935209893576</v>
+        <v>26.74151265846272</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>85.29366956166309</v>
+        <v>85.40653185308911</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>85.40653185308913</v>
       </c>
       <c r="I21">
-        <v>14.52719720606377</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>14.52312265756482</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.90565461296968</v>
+        <v>37.88298400901722</v>
       </c>
       <c r="C22">
-        <v>28.86259681151338</v>
+        <v>28.83910183735549</v>
       </c>
       <c r="D22">
-        <v>14.00654975299866</v>
+        <v>14.0018812915286</v>
       </c>
       <c r="E22">
-        <v>28.1884508532712</v>
+        <v>28.17857914714764</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>89.5522817726368</v>
+        <v>89.62724467848348</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>89.62724467919683</v>
       </c>
       <c r="I22">
-        <v>15.28747400331706</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>15.28231167893095</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.87020898764824</v>
+        <v>36.84975235323084</v>
       </c>
       <c r="C23">
-        <v>28.03618642761551</v>
+        <v>28.01485235752473</v>
       </c>
       <c r="D23">
-        <v>13.63406390760691</v>
+        <v>13.62992333532111</v>
       </c>
       <c r="E23">
-        <v>27.41448218262034</v>
+        <v>27.40575887235086</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>87.26447234608573</v>
+        <v>87.35963548942239</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>87.35963548942894</v>
       </c>
       <c r="I23">
-        <v>14.87830839553941</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>14.87376153584281</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.07214741690552</v>
+        <v>33.05829028712915</v>
       </c>
       <c r="C24">
-        <v>25.03365952824338</v>
+        <v>25.01883032479185</v>
       </c>
       <c r="D24">
-        <v>12.26207796985701</v>
+        <v>12.25943700241565</v>
       </c>
       <c r="E24">
-        <v>24.58307574729561</v>
+        <v>24.57757741837423</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>78.93069156515516</v>
+        <v>79.02466965739114</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>79.02466965739116</v>
       </c>
       <c r="I24">
-        <v>13.38676098765312</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>13.38393049067003</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.06171926025505</v>
+        <v>29.05290583948078</v>
       </c>
       <c r="C25">
-        <v>21.9056154041929</v>
+        <v>21.89585490891332</v>
       </c>
       <c r="D25">
-        <v>10.80485715375255</v>
+        <v>10.80327130710575</v>
       </c>
       <c r="E25">
-        <v>21.603007179177</v>
+        <v>21.59973828872257</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>70.39090991873765</v>
+        <v>70.22316695316351</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>70.37018076050796</v>
       </c>
       <c r="I25">
-        <v>11.82507964980041</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.82342124720241</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_line/loading_percent.xlsx
@@ -420,120 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>20.75977916855463</v>
+      </c>
+      <c r="C2">
+        <v>13.99554088060002</v>
+      </c>
+      <c r="D2">
+        <v>7.108435312748821</v>
+      </c>
+      <c r="E2">
+        <v>29.32817032797062</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.091031447341594</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>18.64744273706353</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>20.82608101359586</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>19.38448868795612</v>
+      </c>
+      <c r="C3">
+        <v>12.94410464688502</v>
+      </c>
+      <c r="D3">
+        <v>6.587378860988778</v>
+      </c>
+      <c r="E3">
+        <v>27.07906162127399</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.10554400310926</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>17.35782499150701</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>20.41560312264633</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>18.52945327839648</v>
+      </c>
+      <c r="C4">
+        <v>12.27367438608072</v>
+      </c>
+      <c r="D4">
+        <v>6.264680158822486</v>
+      </c>
+      <c r="E4">
+        <v>25.64783389847313</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.114553405878004</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>16.63120466109738</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>20.16783481339503</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>18.17551977550167</v>
+      </c>
+      <c r="C5">
+        <v>11.99399379050506</v>
+      </c>
+      <c r="D5">
+        <v>6.147375718988169</v>
+      </c>
+      <c r="E5">
+        <v>25.05120856650087</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.118256081144552</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>16.33136365975494</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>20.06787185366835</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>18.11641982037888</v>
+      </c>
+      <c r="C6">
+        <v>11.94715612088782</v>
+      </c>
+      <c r="D6">
+        <v>6.127789143842855</v>
+      </c>
+      <c r="E6">
+        <v>24.95131051877646</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.118872971139429</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>16.28135292896018</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>20.05133200937587</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>18.52470217281692</v>
+      </c>
+      <c r="C7">
+        <v>12.26992900274252</v>
+      </c>
+      <c r="D7">
+        <v>6.263105440004805</v>
+      </c>
+      <c r="E7">
+        <v>25.63984273615027</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.1146032068343</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>16.62717589421646</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>20.16648269086285</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>20.27800081200716</v>
+      </c>
+      <c r="C8">
+        <v>13.63801161131198</v>
+      </c>
+      <c r="D8">
+        <v>6.931679974868492</v>
+      </c>
+      <c r="E8">
+        <v>28.56263016521521</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.096019050268796</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>18.17415090522359</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>20.68361693243828</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>23.85235588478394</v>
+      </c>
+      <c r="C9">
+        <v>16.13643413206982</v>
+      </c>
+      <c r="D9">
+        <v>8.157971163501982</v>
+      </c>
+      <c r="E9">
+        <v>33.93487816637683</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.060017894384723</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>21.47005838139095</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>21.73561336893159</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>26.36251099162363</v>
+      </c>
+      <c r="C10">
+        <v>17.88182012468874</v>
+      </c>
+      <c r="D10">
+        <v>9.002344332748917</v>
+      </c>
+      <c r="E10">
+        <v>37.72958136012738</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.033266948556365</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>23.75665220575909</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>22.53924169598725</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>27.48149556910691</v>
+      </c>
+      <c r="C11">
+        <v>18.66279668934822</v>
+      </c>
+      <c r="D11">
+        <v>9.376759024915057</v>
+      </c>
+      <c r="E11">
+        <v>39.44229073990634</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2.020868122654991</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>24.77540866350659</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>22.91395914947001</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>27.90279529410447</v>
+      </c>
+      <c r="C12">
+        <v>18.95736835342651</v>
+      </c>
+      <c r="D12">
+        <v>9.517414095156749</v>
+      </c>
+      <c r="E12">
+        <v>40.09102493248357</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2.016122447365014</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>25.15893789632419</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>23.05745063671771</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>27.81215328060783</v>
+      </c>
+      <c r="C13">
+        <v>18.89396596148829</v>
+      </c>
+      <c r="D13">
+        <v>9.487166802326724</v>
+      </c>
+      <c r="E13">
+        <v>39.95126152795362</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2.017147082508551</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>25.07642288113255</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>23.02647095732871</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>27.51619931049589</v>
+      </c>
+      <c r="C14">
+        <v>18.68705004002972</v>
+      </c>
+      <c r="D14">
+        <v>9.388351672710053</v>
+      </c>
+      <c r="E14">
+        <v>39.49564512252056</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2.020478820085189</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>24.80700153918558</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>22.92573044418171</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>27.334630738114</v>
+      </c>
+      <c r="C15">
+        <v>18.56017977821077</v>
+      </c>
+      <c r="D15">
+        <v>9.327686568218724</v>
+      </c>
+      <c r="E15">
+        <v>39.21666049683033</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2.022512439972135</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>24.64170779077688</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>22.86424122477796</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>26.28899073256627</v>
+      </c>
+      <c r="C16">
+        <v>17.83057618842462</v>
+      </c>
+      <c r="D16">
+        <v>8.97770191344703</v>
+      </c>
+      <c r="E16">
+        <v>37.61754885203638</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.034071213222973</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>23.6897096780238</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>22.51495914658243</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>25.6422092436486</v>
+      </c>
+      <c r="C17">
+        <v>17.38010781965705</v>
+      </c>
+      <c r="D17">
+        <v>8.760687654277966</v>
+      </c>
+      <c r="E17">
+        <v>36.63443284215619</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2.041092065124007</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>23.10073643060234</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>22.30320302307337</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>25.26798080029751</v>
+      </c>
+      <c r="C18">
+        <v>17.11973556789409</v>
+      </c>
+      <c r="D18">
+        <v>8.634935531071134</v>
+      </c>
+      <c r="E18">
+        <v>36.06754605261072</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2.045109899598731</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>22.75989882522398</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>22.18224640846199</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>25.14086976783419</v>
+      </c>
+      <c r="C19">
+        <v>17.03134017355613</v>
+      </c>
+      <c r="D19">
+        <v>8.592190819192206</v>
+      </c>
+      <c r="E19">
+        <v>35.87530688690433</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2.046467240962298</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>22.64411817425438</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>22.14142953798071</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>25.71128409208313</v>
+      </c>
+      <c r="C20">
+        <v>17.42818829466063</v>
+      </c>
+      <c r="D20">
+        <v>8.78388381668992</v>
+      </c>
+      <c r="E20">
+        <v>36.73922094584476</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2.040346906319409</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>23.16364304397337</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>22.32565611708318</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>27.60318639863381</v>
+      </c>
+      <c r="C21">
+        <v>18.74785149569327</v>
+      </c>
+      <c r="D21">
+        <v>9.417404269011016</v>
+      </c>
+      <c r="E21">
+        <v>39.62944665683377</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2.019501738453211</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>24.88619066787851</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>22.95527448348382</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>28.82601828347968</v>
+      </c>
+      <c r="C22">
+        <v>19.60398290325812</v>
+      </c>
+      <c r="D22">
+        <v>9.825041974213725</v>
+      </c>
+      <c r="E22">
+        <v>41.52075807350315</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2.00557248526301</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>25.99938531398156</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>23.37625107760919</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>28.17427695595934</v>
+      </c>
+      <c r="C23">
+        <v>19.14735091325079</v>
+      </c>
+      <c r="D23">
+        <v>9.607960278280778</v>
+      </c>
+      <c r="E23">
+        <v>40.51026557045226</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2.013041674219017</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>25.40607730566775</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>23.15058547829627</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>25.68006284420989</v>
+      </c>
+      <c r="C24">
+        <v>17.40645549843419</v>
+      </c>
+      <c r="D24">
+        <v>8.773399927582023</v>
+      </c>
+      <c r="E24">
+        <v>36.69185163002549</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2.040683849120622</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>23.13520996703442</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>22.31550264877224</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>22.90295065812866</v>
+      </c>
+      <c r="C25">
+        <v>15.47826120865836</v>
+      </c>
+      <c r="D25">
+        <v>7.836921658358829</v>
+      </c>
+      <c r="E25">
+        <v>32.51386663338064</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.069762604784373</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>20.6043840448668</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>21.44629543683408</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.75977916855463</v>
+        <v>17.52333086377223</v>
       </c>
       <c r="C2">
-        <v>13.99554088060002</v>
+        <v>10.01068817667626</v>
       </c>
       <c r="D2">
-        <v>7.108435312748821</v>
+        <v>6.038340297485728</v>
       </c>
       <c r="E2">
-        <v>29.32817032797062</v>
+        <v>16.1700202647893</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.091031447341594</v>
+        <v>3.719602636751555</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.64744273706353</v>
+        <v>16.87841560734294</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.82608101359586</v>
+        <v>24.48014861058435</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.38448868795612</v>
+        <v>17.18910987679533</v>
       </c>
       <c r="C3">
-        <v>12.94410464688502</v>
+        <v>9.711022583902013</v>
       </c>
       <c r="D3">
-        <v>6.587378860988778</v>
+        <v>5.930281471181327</v>
       </c>
       <c r="E3">
-        <v>27.07906162127399</v>
+        <v>15.27057575901039</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.10554400310926</v>
+        <v>3.724140444865302</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.35782499150701</v>
+        <v>16.63006494797013</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.41560312264633</v>
+        <v>24.36685345874635</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.52945327839648</v>
+        <v>16.98661358983785</v>
       </c>
       <c r="C4">
-        <v>12.27367438608072</v>
+        <v>9.5260670179636</v>
       </c>
       <c r="D4">
-        <v>6.264680158822486</v>
+        <v>5.864968902130087</v>
       </c>
       <c r="E4">
-        <v>25.64783389847313</v>
+        <v>14.69649287162362</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.114553405878004</v>
+        <v>3.727063145343548</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.63120466109738</v>
+        <v>16.4812683904895</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.16783481339503</v>
+        <v>24.2980326955226</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.17551977550167</v>
+        <v>16.90489598540878</v>
       </c>
       <c r="C5">
-        <v>11.99399379050506</v>
+        <v>9.450584201949361</v>
       </c>
       <c r="D5">
-        <v>6.147375718988169</v>
+        <v>5.838651050039871</v>
       </c>
       <c r="E5">
-        <v>25.05120856650087</v>
+        <v>14.45734178204565</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.118256081144552</v>
+        <v>3.728288647617414</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.33136365975494</v>
+        <v>16.42163519218376</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.06787185366835</v>
+        <v>24.27018153891894</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.11641982037888</v>
+        <v>16.89137867773122</v>
       </c>
       <c r="C6">
-        <v>11.94715612088782</v>
+        <v>9.43804748682853</v>
       </c>
       <c r="D6">
-        <v>6.127789143842855</v>
+        <v>5.8343000376142</v>
       </c>
       <c r="E6">
-        <v>24.95131051877646</v>
+        <v>14.4173255914185</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.118872971139429</v>
+        <v>3.728494228472524</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.28135292896018</v>
+        <v>16.411795827087</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.05133200937587</v>
+        <v>24.26556878293903</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.52470217281692</v>
+        <v>16.98550811749289</v>
       </c>
       <c r="C7">
-        <v>12.26992900274252</v>
+        <v>9.525049307655282</v>
       </c>
       <c r="D7">
-        <v>6.263105440004805</v>
+        <v>5.864612716901958</v>
       </c>
       <c r="E7">
-        <v>25.63984273615027</v>
+        <v>14.69328827462067</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.1146032068343</v>
+        <v>3.727079533079202</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.62717589421646</v>
+        <v>16.48046000025251</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.16648269086285</v>
+        <v>24.29765629110358</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.27800081200716</v>
+        <v>17.40759850579231</v>
       </c>
       <c r="C8">
-        <v>13.63801161131198</v>
+        <v>9.907638184388153</v>
       </c>
       <c r="D8">
-        <v>6.931679974868492</v>
+        <v>6.000888895104457</v>
       </c>
       <c r="E8">
-        <v>28.56263016521521</v>
+        <v>15.86457257569413</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.096019050268796</v>
+        <v>3.721139047028846</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.17415090522359</v>
+        <v>16.79206326766036</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.68361693243828</v>
+        <v>24.44093457156859</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.85235588478394</v>
+        <v>18.25170223468708</v>
       </c>
       <c r="C9">
-        <v>16.13643413206982</v>
+        <v>10.64496013628211</v>
       </c>
       <c r="D9">
-        <v>8.157971163501982</v>
+        <v>6.274713732922391</v>
       </c>
       <c r="E9">
-        <v>33.93487816637683</v>
+        <v>17.97847481887194</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.060017894384723</v>
+        <v>3.710565163346881</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.47005838139095</v>
+        <v>17.42905880918163</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.73561336893159</v>
+        <v>24.72747950322624</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.36251099162363</v>
+        <v>18.87505256207881</v>
       </c>
       <c r="C10">
-        <v>17.88182012468874</v>
+        <v>11.17223697823084</v>
       </c>
       <c r="D10">
-        <v>9.002344332748917</v>
+        <v>6.477745507917873</v>
       </c>
       <c r="E10">
-        <v>37.72958136012738</v>
+        <v>19.56736473808277</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.033266948556365</v>
+        <v>3.703441692710354</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.75665220575909</v>
+        <v>17.90832696514771</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.53924169598725</v>
+        <v>24.94096710015651</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.48149556910691</v>
+        <v>19.15794360947391</v>
       </c>
       <c r="C11">
-        <v>18.66279668934822</v>
+        <v>11.40776394696344</v>
       </c>
       <c r="D11">
-        <v>9.376759024915057</v>
+        <v>6.570068962762825</v>
       </c>
       <c r="E11">
-        <v>39.44229073990634</v>
+        <v>20.26168117415078</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.020868122654991</v>
+        <v>3.700338885139817</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.77540866350659</v>
+        <v>18.12784155151594</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.91395914947001</v>
+        <v>25.03863261766095</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.90279529410447</v>
+        <v>19.26486111896585</v>
       </c>
       <c r="C12">
-        <v>18.95736835342651</v>
+        <v>11.49623984815805</v>
       </c>
       <c r="D12">
-        <v>9.517414095156749</v>
+        <v>6.604988830364392</v>
       </c>
       <c r="E12">
-        <v>40.09102493248357</v>
+        <v>20.51884627912217</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.016122447365014</v>
+        <v>3.699183557565267</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.15893789632419</v>
+        <v>18.21110170934368</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>23.05745063671771</v>
+        <v>25.07568586646896</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.81215328060783</v>
+        <v>19.24184543326759</v>
       </c>
       <c r="C13">
-        <v>18.89396596148829</v>
+        <v>11.47721802991182</v>
       </c>
       <c r="D13">
-        <v>9.487166802326724</v>
+        <v>6.597470589229462</v>
       </c>
       <c r="E13">
-        <v>39.95126152795362</v>
+        <v>20.46371663928199</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.017147082508551</v>
+        <v>3.69943150719468</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.07642288113255</v>
+        <v>18.19316540351722</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>23.02647095732871</v>
+        <v>25.06770285190089</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.51619931049589</v>
+        <v>19.1667445421398</v>
       </c>
       <c r="C14">
-        <v>18.68705004002972</v>
+        <v>11.41505768649067</v>
       </c>
       <c r="D14">
-        <v>9.388351672710053</v>
+        <v>6.572942862671606</v>
       </c>
       <c r="E14">
-        <v>39.49564512252056</v>
+        <v>20.28295347499887</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.020478820085189</v>
+        <v>3.700243442994337</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.80700153918558</v>
+        <v>18.13468916520342</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.92573044418171</v>
+        <v>25.0416796744044</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.334630738114</v>
+        <v>19.1207129147453</v>
       </c>
       <c r="C15">
-        <v>18.56017977821077</v>
+        <v>11.37688730521412</v>
       </c>
       <c r="D15">
-        <v>9.327686568218724</v>
+        <v>6.557912545096004</v>
       </c>
       <c r="E15">
-        <v>39.21666049683033</v>
+        <v>20.17148214112984</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.022512439972135</v>
+        <v>3.700743329785801</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.64170779077688</v>
+        <v>18.0988859893447</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>22.86424122477796</v>
+        <v>25.0257484834095</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.28899073256627</v>
+        <v>18.85654185646479</v>
       </c>
       <c r="C16">
-        <v>17.83057618842462</v>
+        <v>11.15674964604219</v>
       </c>
       <c r="D16">
-        <v>8.97770191344703</v>
+        <v>6.471708124683924</v>
       </c>
       <c r="E16">
-        <v>37.61754885203638</v>
+        <v>19.5211818065793</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.034071213222973</v>
+        <v>3.703647225413553</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.6897096780238</v>
+        <v>17.89400433760668</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.51495914658243</v>
+        <v>24.93459466851918</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.6422092436486</v>
+        <v>18.69422870792645</v>
       </c>
       <c r="C17">
-        <v>17.38010781965705</v>
+        <v>11.02052557019733</v>
       </c>
       <c r="D17">
-        <v>8.760687654277966</v>
+        <v>6.418789202156813</v>
       </c>
       <c r="E17">
-        <v>36.63443284215619</v>
+        <v>19.11194863378293</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.041092065124007</v>
+        <v>3.705463823129836</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.10073643060234</v>
+        <v>17.76864103084031</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.30320302307337</v>
+        <v>24.87880867244162</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.26798080029751</v>
+        <v>18.6008133050431</v>
       </c>
       <c r="C18">
-        <v>17.11973556789409</v>
+        <v>10.94176995927127</v>
       </c>
       <c r="D18">
-        <v>8.634935531071134</v>
+        <v>6.388350231630327</v>
       </c>
       <c r="E18">
-        <v>36.06754605261072</v>
+        <v>18.87277307036648</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.045109899598731</v>
+        <v>3.706521652307986</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.75989882522398</v>
+        <v>17.69668059419379</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.18224640846199</v>
+        <v>24.84677429688144</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.14086976783419</v>
+        <v>18.56917808037196</v>
       </c>
       <c r="C19">
-        <v>17.03134017355613</v>
+        <v>10.91503830788541</v>
       </c>
       <c r="D19">
-        <v>8.592190819192206</v>
+        <v>6.378044991176278</v>
       </c>
       <c r="E19">
-        <v>35.87530688690433</v>
+        <v>18.79113931175575</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.046467240962298</v>
+        <v>3.706882047666145</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.64411817425438</v>
+        <v>17.67234343533235</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.14142953798071</v>
+        <v>24.83593726769224</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.71128409208313</v>
+        <v>18.71151395233525</v>
       </c>
       <c r="C20">
-        <v>17.42818829466063</v>
+        <v>11.0350692564058</v>
       </c>
       <c r="D20">
-        <v>8.78388381668992</v>
+        <v>6.424422921004474</v>
       </c>
       <c r="E20">
-        <v>36.73922094584476</v>
+        <v>19.15590474697555</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.040346906319409</v>
+        <v>3.705269102006263</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.16364304397337</v>
+        <v>17.78197172424095</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.32565611708318</v>
+        <v>24.88474184691732</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.60318639863381</v>
+        <v>19.18880996942706</v>
       </c>
       <c r="C21">
-        <v>18.74785149569327</v>
+        <v>11.43333571046756</v>
       </c>
       <c r="D21">
-        <v>9.417404269011016</v>
+        <v>6.580148641059798</v>
       </c>
       <c r="E21">
-        <v>39.62944665683377</v>
+        <v>20.33620395464268</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.019501738453211</v>
+        <v>3.700004426083852</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.88619066787851</v>
+        <v>18.15186202424982</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.95527448348382</v>
+        <v>25.04932150483961</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.82601828347968</v>
+        <v>19.49949559685796</v>
       </c>
       <c r="C22">
-        <v>19.60398290325812</v>
+        <v>11.68943413832393</v>
       </c>
       <c r="D22">
-        <v>9.825041974213725</v>
+        <v>6.681669840546749</v>
       </c>
       <c r="E22">
-        <v>41.52075807350315</v>
+        <v>21.07405622120865</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.00557248526301</v>
+        <v>3.696678047595271</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.99938531398156</v>
+        <v>18.39435655126976</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>23.37625107760919</v>
+        <v>25.15728398651581</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.17427695595934</v>
+        <v>19.33382666715998</v>
       </c>
       <c r="C23">
-        <v>19.14735091325079</v>
+        <v>11.55316054948319</v>
       </c>
       <c r="D23">
-        <v>9.607960278280778</v>
+        <v>6.627520761204357</v>
       </c>
       <c r="E23">
-        <v>40.51026557045226</v>
+        <v>20.6833072249261</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.013041674219017</v>
+        <v>3.698442985221364</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.40607730566775</v>
+        <v>18.26488992793713</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>23.15058547829627</v>
+        <v>25.09962896258347</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.68006284420989</v>
+        <v>18.70369959455941</v>
       </c>
       <c r="C24">
-        <v>17.40645549843419</v>
+        <v>11.02849541502188</v>
       </c>
       <c r="D24">
-        <v>8.773399927582023</v>
+        <v>6.42187596125789</v>
       </c>
       <c r="E24">
-        <v>36.69185163002549</v>
+        <v>19.13604434478799</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.040683849120622</v>
+        <v>3.7053570935423</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.13520996703442</v>
+        <v>17.77594456094847</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.31550264877224</v>
+        <v>24.88205934047805</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.90295065812866</v>
+        <v>18.02230838325886</v>
       </c>
       <c r="C25">
-        <v>15.47826120865836</v>
+        <v>10.44758903621764</v>
       </c>
       <c r="D25">
-        <v>7.836921658358829</v>
+        <v>6.200157439593871</v>
       </c>
       <c r="E25">
-        <v>32.51386663338064</v>
+        <v>17.42740422750345</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.069762604784373</v>
+        <v>3.713311627667473</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.6043840448668</v>
+        <v>17.25442602536067</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.44629543683408</v>
+        <v>24.64940823883975</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.52333086377223</v>
+        <v>20.75977916855456</v>
       </c>
       <c r="C2">
-        <v>10.01068817667626</v>
+        <v>13.99554088060009</v>
       </c>
       <c r="D2">
-        <v>6.038340297485728</v>
+        <v>7.10843531274876</v>
       </c>
       <c r="E2">
-        <v>16.1700202647893</v>
+        <v>29.32817032797052</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.719602636751555</v>
+        <v>2.091031447341727</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.87841560734294</v>
+        <v>18.64744273706352</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>24.48014861058435</v>
+        <v>20.82608101359599</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.18910987679533</v>
+        <v>19.38448868795615</v>
       </c>
       <c r="C3">
-        <v>9.711022583902013</v>
+        <v>12.94410464688524</v>
       </c>
       <c r="D3">
-        <v>5.930281471181327</v>
+        <v>6.587378860988791</v>
       </c>
       <c r="E3">
-        <v>15.27057575901039</v>
+        <v>27.0790616212741</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.724140444865302</v>
+        <v>2.105544003109389</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.63006494797013</v>
+        <v>17.35782499150704</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.36685345874635</v>
+        <v>20.4156031226463</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.98661358983785</v>
+        <v>18.52945327839648</v>
       </c>
       <c r="C4">
-        <v>9.5260670179636</v>
+        <v>12.27367438608075</v>
       </c>
       <c r="D4">
-        <v>5.864968902130087</v>
+        <v>6.264680158822464</v>
       </c>
       <c r="E4">
-        <v>14.69649287162362</v>
+        <v>25.64783389847316</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.727063145343548</v>
+        <v>2.114553405878135</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.4812683904895</v>
+        <v>16.63120466109738</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>24.2980326955226</v>
+        <v>20.16783481339498</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.90489598540878</v>
+        <v>18.17551977550166</v>
       </c>
       <c r="C5">
-        <v>9.450584201949361</v>
+        <v>11.99399379050504</v>
       </c>
       <c r="D5">
-        <v>5.838651050039871</v>
+        <v>6.147375718988264</v>
       </c>
       <c r="E5">
-        <v>14.45734178204565</v>
+        <v>25.05120856650091</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.728288647617414</v>
+        <v>2.118256081144949</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.42163519218376</v>
+        <v>16.33136365975495</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>24.27018153891894</v>
+        <v>20.06787185366841</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.89137867773122</v>
+        <v>18.11641982037886</v>
       </c>
       <c r="C6">
-        <v>9.43804748682853</v>
+        <v>11.94715612088771</v>
       </c>
       <c r="D6">
-        <v>5.8343000376142</v>
+        <v>6.127789143842839</v>
       </c>
       <c r="E6">
-        <v>14.4173255914185</v>
+        <v>24.95131051877645</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.728494228472524</v>
+        <v>2.118872971139163</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.411795827087</v>
+        <v>16.2813529289602</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>24.26556878293903</v>
+        <v>20.05133200937591</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.98550811749289</v>
+        <v>18.52470217281692</v>
       </c>
       <c r="C7">
-        <v>9.525049307655282</v>
+        <v>12.26992900274248</v>
       </c>
       <c r="D7">
-        <v>5.864612716901958</v>
+        <v>6.263105440004808</v>
       </c>
       <c r="E7">
-        <v>14.69328827462067</v>
+        <v>25.63984273615034</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.727079533079202</v>
+        <v>2.114603206834167</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.48046000025251</v>
+        <v>16.62717589421644</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>24.29765629110358</v>
+        <v>20.16648269086281</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.40759850579231</v>
+        <v>20.27800081200723</v>
       </c>
       <c r="C8">
-        <v>9.907638184388153</v>
+        <v>13.63801161131189</v>
       </c>
       <c r="D8">
-        <v>6.000888895104457</v>
+        <v>6.931679974868588</v>
       </c>
       <c r="E8">
-        <v>15.86457257569413</v>
+        <v>28.56263016521528</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.721139047028846</v>
+        <v>2.096019050268666</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.79206326766036</v>
+        <v>18.17415090522361</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>24.44093457156859</v>
+        <v>20.68361693243828</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.25170223468708</v>
+        <v>23.85235588478365</v>
       </c>
       <c r="C9">
-        <v>10.64496013628211</v>
+        <v>16.13643413206981</v>
       </c>
       <c r="D9">
-        <v>6.274713732922391</v>
+        <v>8.157971163501832</v>
       </c>
       <c r="E9">
-        <v>17.97847481887194</v>
+        <v>33.93487816637661</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.710565163346881</v>
+        <v>2.060017894384857</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.42905880918163</v>
+        <v>21.47005838139066</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>24.72747950322624</v>
+        <v>21.73561336893171</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.87505256207881</v>
+        <v>26.36251099162379</v>
       </c>
       <c r="C10">
-        <v>11.17223697823084</v>
+        <v>17.88182012468889</v>
       </c>
       <c r="D10">
-        <v>6.477745507917873</v>
+        <v>9.002344332748915</v>
       </c>
       <c r="E10">
-        <v>19.56736473808277</v>
+        <v>37.72958136012745</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.703441692710354</v>
+        <v>2.033266948556237</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.90832696514771</v>
+        <v>23.75665220575923</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>24.94096710015651</v>
+        <v>22.5392416959872</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.15794360947391</v>
+        <v>27.4814955691069</v>
       </c>
       <c r="C11">
-        <v>11.40776394696344</v>
+        <v>18.66279668934821</v>
       </c>
       <c r="D11">
-        <v>6.570068962762825</v>
+        <v>9.376759024915133</v>
       </c>
       <c r="E11">
-        <v>20.26168117415078</v>
+        <v>39.44229073990633</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.700338885139817</v>
+        <v>2.020868122654864</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.12784155151594</v>
+        <v>24.77540866350657</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>25.03863261766095</v>
+        <v>22.91395914947003</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.26486111896585</v>
+        <v>27.90279529410473</v>
       </c>
       <c r="C12">
-        <v>11.49623984815805</v>
+        <v>18.95736835342666</v>
       </c>
       <c r="D12">
-        <v>6.604988830364392</v>
+        <v>9.517414095156905</v>
       </c>
       <c r="E12">
-        <v>20.51884627912217</v>
+        <v>40.09102493248389</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.699183557565267</v>
+        <v>2.016122447365021</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.21110170934368</v>
+        <v>25.15893789632439</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>25.07568586646896</v>
+        <v>23.05745063671771</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.24184543326759</v>
+        <v>27.81215328060762</v>
       </c>
       <c r="C13">
-        <v>11.47721802991182</v>
+        <v>18.89396596148833</v>
       </c>
       <c r="D13">
-        <v>6.597470589229462</v>
+        <v>9.487166802326721</v>
       </c>
       <c r="E13">
-        <v>20.46371663928199</v>
+        <v>39.95126152795363</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.69943150719468</v>
+        <v>2.017147082508547</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.19316540351722</v>
+        <v>25.07642288113241</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>25.06770285190089</v>
+        <v>23.02647095732869</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.1667445421398</v>
+        <v>27.51619931049593</v>
       </c>
       <c r="C14">
-        <v>11.41505768649067</v>
+        <v>18.68705004002966</v>
       </c>
       <c r="D14">
-        <v>6.572942862671606</v>
+        <v>9.388351672710069</v>
       </c>
       <c r="E14">
-        <v>20.28295347499887</v>
+        <v>39.49564512252059</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.700243442994337</v>
+        <v>2.020478820084799</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.13468916520342</v>
+        <v>24.80700153918559</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>25.0416796744044</v>
+        <v>22.92573044418175</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.1207129147453</v>
+        <v>27.33463073811379</v>
       </c>
       <c r="C15">
-        <v>11.37688730521412</v>
+        <v>18.56017977821079</v>
       </c>
       <c r="D15">
-        <v>6.557912545096004</v>
+        <v>9.327686568218617</v>
       </c>
       <c r="E15">
-        <v>20.17148214112984</v>
+        <v>39.21666049683017</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.700743329785801</v>
+        <v>2.022512439972532</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.0988859893447</v>
+        <v>24.64170779077679</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>25.0257484834095</v>
+        <v>22.86424122477791</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.85654185646479</v>
+        <v>26.28899073256611</v>
       </c>
       <c r="C16">
-        <v>11.15674964604219</v>
+        <v>17.8305761884247</v>
       </c>
       <c r="D16">
-        <v>6.471708124683924</v>
+        <v>8.977701913446889</v>
       </c>
       <c r="E16">
-        <v>19.5211818065793</v>
+        <v>37.61754885203626</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.703647225413553</v>
+        <v>2.0340712132231</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.89400433760668</v>
+        <v>23.6897096780237</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>24.93459466851918</v>
+        <v>22.51495914658245</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.69422870792645</v>
+        <v>25.64220924364858</v>
       </c>
       <c r="C17">
-        <v>11.02052557019733</v>
+        <v>17.38010781965704</v>
       </c>
       <c r="D17">
-        <v>6.418789202156813</v>
+        <v>8.760687654277998</v>
       </c>
       <c r="E17">
-        <v>19.11194863378293</v>
+        <v>36.634432842156</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.705463823129836</v>
+        <v>2.041092065124008</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.76864103084031</v>
+        <v>23.10073643060233</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>24.87880867244162</v>
+        <v>22.30320302307344</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.6008133050431</v>
+        <v>25.26798080029765</v>
       </c>
       <c r="C18">
-        <v>10.94176995927127</v>
+        <v>17.11973556789404</v>
       </c>
       <c r="D18">
-        <v>6.388350231630327</v>
+        <v>8.634935531071289</v>
       </c>
       <c r="E18">
-        <v>18.87277307036648</v>
+        <v>36.06754605261088</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.706521652307986</v>
+        <v>2.045109899598337</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.69668059419379</v>
+        <v>22.75989882522407</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>24.84677429688144</v>
+        <v>22.18224640846202</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.56917808037196</v>
+        <v>25.14086976783425</v>
       </c>
       <c r="C19">
-        <v>10.91503830788541</v>
+        <v>17.03134017355608</v>
       </c>
       <c r="D19">
-        <v>6.378044991176278</v>
+        <v>8.592190819192249</v>
       </c>
       <c r="E19">
-        <v>18.79113931175575</v>
+        <v>35.87530688690433</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.706882047666145</v>
+        <v>2.046467240962176</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.67234343533235</v>
+        <v>22.64411817425441</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>24.83593726769224</v>
+        <v>22.14142953798067</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.71151395233525</v>
+        <v>25.71128409208332</v>
       </c>
       <c r="C20">
-        <v>11.0350692564058</v>
+        <v>17.42818829466087</v>
       </c>
       <c r="D20">
-        <v>6.424422921004474</v>
+        <v>8.783883816689965</v>
       </c>
       <c r="E20">
-        <v>19.15590474697555</v>
+        <v>36.73922094584495</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.705269102006263</v>
+        <v>2.040346906319803</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.78197172424095</v>
+        <v>23.16364304397359</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>24.88474184691732</v>
+        <v>22.32565611708319</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.18880996942706</v>
+        <v>27.60318639863393</v>
       </c>
       <c r="C21">
-        <v>11.43333571046756</v>
+        <v>18.74785149569335</v>
       </c>
       <c r="D21">
-        <v>6.580148641059798</v>
+        <v>9.417404269011076</v>
       </c>
       <c r="E21">
-        <v>20.33620395464268</v>
+        <v>39.62944665683369</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.700004426083852</v>
+        <v>2.019501738453226</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.15186202424982</v>
+        <v>24.8861906678786</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>25.04932150483961</v>
+        <v>22.95527448348389</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.49949559685796</v>
+        <v>28.8260182834799</v>
       </c>
       <c r="C22">
-        <v>11.68943413832393</v>
+        <v>19.60398290325831</v>
       </c>
       <c r="D22">
-        <v>6.681669840546749</v>
+        <v>9.825041974213903</v>
       </c>
       <c r="E22">
-        <v>21.07405622120865</v>
+        <v>41.52075807350341</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.696678047595271</v>
+        <v>2.005572485263144</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.39435655126976</v>
+        <v>25.99938531398179</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>25.15728398651581</v>
+        <v>23.37625107760926</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.33382666715998</v>
+        <v>28.17427695595938</v>
       </c>
       <c r="C23">
-        <v>11.55316054948319</v>
+        <v>19.14735091325052</v>
       </c>
       <c r="D23">
-        <v>6.627520761204357</v>
+        <v>9.60796027828081</v>
       </c>
       <c r="E23">
-        <v>20.6833072249261</v>
+        <v>40.51026557045231</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.698442985221364</v>
+        <v>2.013041674219156</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.26488992793713</v>
+        <v>25.40607730566772</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>25.09962896258347</v>
+        <v>23.15058547829631</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.70369959455941</v>
+        <v>25.68006284421001</v>
       </c>
       <c r="C24">
-        <v>11.02849541502188</v>
+        <v>17.40645549843426</v>
       </c>
       <c r="D24">
-        <v>6.42187596125789</v>
+        <v>8.773399927581979</v>
       </c>
       <c r="E24">
-        <v>19.13604434478799</v>
+        <v>36.69185163002557</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.7053570935423</v>
+        <v>2.040683849120622</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.77594456094847</v>
+        <v>23.13520996703453</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>24.88205934047805</v>
+        <v>22.31550264877225</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.02230838325886</v>
+        <v>22.90295065812878</v>
       </c>
       <c r="C25">
-        <v>10.44758903621764</v>
+        <v>15.47826120865854</v>
       </c>
       <c r="D25">
-        <v>6.200157439593871</v>
+        <v>7.836921658358903</v>
       </c>
       <c r="E25">
-        <v>17.42740422750345</v>
+        <v>32.51386663338076</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.713311627667473</v>
+        <v>2.069762604784505</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.25442602536067</v>
+        <v>20.60438404486693</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>24.64940823883975</v>
+        <v>21.44629543683405</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.75977916855456</v>
+        <v>24.10058494267915</v>
       </c>
       <c r="C2">
-        <v>13.99554088060009</v>
+        <v>14.7272215421214</v>
       </c>
       <c r="D2">
-        <v>7.10843531274876</v>
+        <v>8.459856370974352</v>
       </c>
       <c r="E2">
-        <v>29.32817032797052</v>
+        <v>7.311661951886693</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.091031447341727</v>
+        <v>50.3214548159938</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.360957529256638</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.871242328773289</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>15.14903244293776</v>
       </c>
       <c r="K2">
-        <v>18.64744273706352</v>
+        <v>23.56666330748807</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>4.792675701464679</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.82608101359599</v>
+        <v>9.083243595895512</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.38448868795615</v>
+        <v>22.57803802020789</v>
       </c>
       <c r="C3">
-        <v>12.94410464688524</v>
+        <v>13.7327437416501</v>
       </c>
       <c r="D3">
-        <v>6.587378860988791</v>
+        <v>8.222369601325664</v>
       </c>
       <c r="E3">
-        <v>27.0790616212741</v>
+        <v>7.143815705958209</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.105544003109389</v>
+        <v>48.42650438091605</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.685598838565803</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.130231246213999</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>14.85164159109129</v>
       </c>
       <c r="K3">
-        <v>17.35782499150704</v>
+        <v>23.16106769240812</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>4.675894357850151</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.4156031226463</v>
+        <v>8.730921375560275</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.52945327839648</v>
+        <v>21.59228400429907</v>
       </c>
       <c r="C4">
-        <v>12.27367438608075</v>
+        <v>13.09134832255887</v>
       </c>
       <c r="D4">
-        <v>6.264680158822464</v>
+        <v>8.074538616320512</v>
       </c>
       <c r="E4">
-        <v>25.64783389847316</v>
+        <v>7.037687464811672</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.114553405878135</v>
+        <v>47.23429827752523</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.891199412742052</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.294674337532475</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>14.66870696370228</v>
       </c>
       <c r="K4">
-        <v>16.63120466109738</v>
+        <v>22.91025081246582</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>4.602059364768155</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.16783481339498</v>
+        <v>8.508775222386859</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.17551977550166</v>
+        <v>21.17800440906152</v>
       </c>
       <c r="C5">
-        <v>11.99399379050504</v>
+        <v>12.8312897902778</v>
       </c>
       <c r="D5">
-        <v>6.147375718988264</v>
+        <v>8.012848506551986</v>
       </c>
       <c r="E5">
-        <v>25.05120856650091</v>
+        <v>6.992376835804117</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.118256081144949</v>
+        <v>46.70006921264211</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.977147912258892</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.36563513170764</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>14.58563327406555</v>
       </c>
       <c r="K5">
-        <v>16.33136365975495</v>
+        <v>22.79007951852649</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>4.571269225765262</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.06787185366841</v>
+        <v>8.418100353415449</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.11641982037886</v>
+        <v>21.10862226887228</v>
       </c>
       <c r="C6">
-        <v>11.94715612088771</v>
+        <v>12.79877335702511</v>
       </c>
       <c r="D6">
-        <v>6.127789143842839</v>
+        <v>8.001355418887652</v>
       </c>
       <c r="E6">
-        <v>24.95131051877645</v>
+        <v>6.983236207206364</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.118872971139163</v>
+        <v>46.55994805270882</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.992186205552229</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.38075627779119</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>14.56145929873868</v>
       </c>
       <c r="K6">
-        <v>16.2813529289602</v>
+        <v>22.74864070357101</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4.565938254200245</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.05133200937591</v>
+        <v>8.404467166168478</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.52470217281692</v>
+        <v>21.58717373149663</v>
       </c>
       <c r="C7">
-        <v>12.26992900274248</v>
+        <v>13.11751455810649</v>
       </c>
       <c r="D7">
-        <v>6.263105440004808</v>
+        <v>8.07040128007919</v>
       </c>
       <c r="E7">
-        <v>25.63984273615034</v>
+        <v>7.032835342338005</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.114603206834167</v>
+        <v>47.08953092934492</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.894152881294721</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.304282777543638</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>14.63943620171545</v>
       </c>
       <c r="K7">
-        <v>16.62717589421644</v>
+        <v>22.85035292075003</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>4.601155168998663</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.16648269086281</v>
+        <v>8.511611833758632</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.27800081200723</v>
+        <v>23.58657570767645</v>
       </c>
       <c r="C8">
-        <v>13.63801161131189</v>
+        <v>14.42668503084587</v>
       </c>
       <c r="D8">
-        <v>6.931679974868588</v>
+        <v>8.374213441948648</v>
       </c>
       <c r="E8">
-        <v>28.56263016521528</v>
+        <v>7.248996853873684</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.096019050268666</v>
+        <v>49.5004852571281</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.473901433554193</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.970590298127195</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>15.01029242775996</v>
       </c>
       <c r="K8">
-        <v>18.17415090522361</v>
+        <v>23.35179519689073</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>4.752248372062221</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.68361693243828</v>
+        <v>8.968146729806248</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.85235588478365</v>
+        <v>27.10130806858269</v>
       </c>
       <c r="C9">
-        <v>16.13643413206981</v>
+        <v>16.70554311365996</v>
       </c>
       <c r="D9">
-        <v>8.157971163501832</v>
+        <v>8.957255239142018</v>
       </c>
       <c r="E9">
-        <v>33.93487816637661</v>
+        <v>7.656145336452133</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.060017894384857</v>
+        <v>54.21124426948105</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.694556789899857</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.343533943907394</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>15.78166575840033</v>
       </c>
       <c r="K9">
-        <v>21.47005838139066</v>
+        <v>24.4205082188228</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.0330921791712</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.73561336893171</v>
+        <v>9.807219532436354</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.36251099162379</v>
+        <v>29.43553670235135</v>
       </c>
       <c r="C10">
-        <v>17.88182012468889</v>
+        <v>18.273802279363</v>
       </c>
       <c r="D10">
-        <v>9.002344332748915</v>
+        <v>9.308061993168732</v>
       </c>
       <c r="E10">
-        <v>37.72958136012745</v>
+        <v>7.874518139507508</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.033266948556237</v>
+        <v>56.86961162637783</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.182583040803883</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.922252634350426</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>16.20606059746792</v>
       </c>
       <c r="K10">
-        <v>23.75665220575923</v>
+        <v>24.92687725755288</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.238592795837784</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.5392416959872</v>
+        <v>10.30232296527094</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.4814955691069</v>
+        <v>30.43976867449184</v>
       </c>
       <c r="C11">
-        <v>18.66279668934821</v>
+        <v>19.21395283850653</v>
       </c>
       <c r="D11">
-        <v>9.376759024915133</v>
+        <v>8.925901610874314</v>
       </c>
       <c r="E11">
-        <v>39.44229073990633</v>
+        <v>7.487935509127939</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.020868122654864</v>
+        <v>52.96270078492052</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.011605566585311</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.834358056466325</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>15.28787352338203</v>
       </c>
       <c r="K11">
-        <v>24.77540866350657</v>
+        <v>23.01895464800319</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.444936511663435</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.91395914947003</v>
+        <v>9.758760077128356</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.90279529410473</v>
+        <v>30.81015917968272</v>
       </c>
       <c r="C12">
-        <v>18.95736835342666</v>
+        <v>19.65835532266102</v>
       </c>
       <c r="D12">
-        <v>9.517414095156905</v>
+        <v>8.532396845551034</v>
       </c>
       <c r="E12">
-        <v>40.09102493248389</v>
+        <v>7.241987697918409</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.016122447365021</v>
+        <v>49.24524473673754</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.31981504674615</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.824081391812612</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>14.46007567681493</v>
       </c>
       <c r="K12">
-        <v>25.15893789632439</v>
+        <v>21.40260103632276</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.632145666826097</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>23.05745063671771</v>
+        <v>9.190445966025289</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.81215328060762</v>
+        <v>30.72831158332855</v>
       </c>
       <c r="C13">
-        <v>18.89396596148833</v>
+        <v>19.79705672628267</v>
       </c>
       <c r="D13">
-        <v>9.487166802326721</v>
+        <v>8.097145746969398</v>
       </c>
       <c r="E13">
-        <v>39.95126152795363</v>
+        <v>7.090864981199524</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.017147082508547</v>
+        <v>45.1843464543432</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.722867495196932</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.888749868533731</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>13.60466459860812</v>
       </c>
       <c r="K13">
-        <v>25.07642288113241</v>
+        <v>19.82805275562978</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.810520124643801</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>23.02647095732869</v>
+        <v>8.565275837701522</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.51619931049593</v>
+        <v>30.46591408929093</v>
       </c>
       <c r="C14">
-        <v>18.68705004002966</v>
+        <v>19.76592394661687</v>
       </c>
       <c r="D14">
-        <v>9.388351672710069</v>
+        <v>7.772296978932411</v>
       </c>
       <c r="E14">
-        <v>39.49564512252059</v>
+        <v>7.048550726147876</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.020478820084799</v>
+        <v>42.12374928040378</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.73004035961592</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.970492286528312</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.9882585584819</v>
       </c>
       <c r="K14">
-        <v>24.80700153918559</v>
+        <v>18.74762862087237</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.936242084626862</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.92573044418175</v>
+        <v>8.101290665141422</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.33463073811379</v>
+        <v>30.30468669824851</v>
       </c>
       <c r="C15">
-        <v>18.56017977821079</v>
+        <v>19.70167209639942</v>
       </c>
       <c r="D15">
-        <v>9.327686568218617</v>
+        <v>7.683428440009592</v>
       </c>
       <c r="E15">
-        <v>39.21666049683017</v>
+        <v>7.041192993941937</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.022512439972532</v>
+        <v>41.26102819503886</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.968951460400147</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.011677791686105</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.82417499628203</v>
       </c>
       <c r="K15">
-        <v>24.64170779077679</v>
+        <v>18.47651096441803</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.958425128780425</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>22.86424122477791</v>
+        <v>7.976986746601308</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.28899073256611</v>
+        <v>29.36647690916449</v>
       </c>
       <c r="C16">
-        <v>17.8305761884247</v>
+        <v>19.06437900937305</v>
       </c>
       <c r="D16">
-        <v>8.977701913446889</v>
+        <v>7.608995810270125</v>
       </c>
       <c r="E16">
-        <v>37.61754885203626</v>
+        <v>6.969131474318194</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.0340712132231</v>
+        <v>40.67364513120518</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.816320875984491</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.183614858356809</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.78310422910502</v>
       </c>
       <c r="K16">
-        <v>23.6897096780237</v>
+        <v>18.5334615994218</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.837064812585848</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.51495914658245</v>
+        <v>7.872350253983567</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.64220924364858</v>
+        <v>28.77681819280641</v>
       </c>
       <c r="C17">
-        <v>17.38010781965704</v>
+        <v>18.58158133403422</v>
       </c>
       <c r="D17">
-        <v>8.760687654277998</v>
+        <v>7.726785757747787</v>
       </c>
       <c r="E17">
-        <v>36.634432842156</v>
+        <v>6.923133725871571</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.041092065124008</v>
+        <v>41.89574855942104</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.145145808359865</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.273159753075352</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>13.08036555316021</v>
       </c>
       <c r="K17">
-        <v>23.10073643060233</v>
+        <v>19.14098653383773</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.670634371051333</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.30320302307344</v>
+        <v>8.043315899716088</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.26798080029765</v>
+        <v>28.43167963951012</v>
       </c>
       <c r="C18">
-        <v>17.11973556789404</v>
+        <v>18.16563206761262</v>
       </c>
       <c r="D18">
-        <v>8.634935531071289</v>
+        <v>8.028409593962644</v>
       </c>
       <c r="E18">
-        <v>36.06754605261088</v>
+        <v>6.966720398753429</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.045109899598337</v>
+        <v>44.9156764924481</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.991078439733874</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.2884738386715</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>13.72845294907674</v>
       </c>
       <c r="K18">
-        <v>22.75989882522407</v>
+        <v>20.36519208912321</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.468005217786859</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.18224640846202</v>
+        <v>8.474665662924165</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.14086976783425</v>
+        <v>28.3129493474018</v>
       </c>
       <c r="C19">
-        <v>17.03134017355608</v>
+        <v>17.88752131414664</v>
       </c>
       <c r="D19">
-        <v>8.592190819192249</v>
+        <v>8.453332235896163</v>
       </c>
       <c r="E19">
-        <v>35.87530688690433</v>
+        <v>7.177853577779712</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.046467240962176</v>
+        <v>48.92582309791212</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.66406943188475</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.257102254883078</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>14.57566182480557</v>
       </c>
       <c r="K19">
-        <v>22.64411817425441</v>
+        <v>21.95491666516997</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.288990986968848</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.14142953798067</v>
+        <v>9.094200529627626</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.71128409208332</v>
+        <v>28.83936672575437</v>
       </c>
       <c r="C20">
-        <v>17.42818829466087</v>
+        <v>17.94306236286506</v>
       </c>
       <c r="D20">
-        <v>8.783883816689965</v>
+        <v>9.205022586927203</v>
       </c>
       <c r="E20">
-        <v>36.73922094584495</v>
+        <v>7.803287009256277</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.040346906319803</v>
+        <v>55.79196817122064</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.31994250679983</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.063012771913788</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>16.00977088812312</v>
       </c>
       <c r="K20">
-        <v>23.16364304397359</v>
+        <v>24.61733862271083</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.184382996102132</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.32565611708319</v>
+        <v>10.18096850913558</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.60318639863393</v>
+        <v>30.55247943593119</v>
       </c>
       <c r="C21">
-        <v>18.74785149569335</v>
+        <v>19.0425419672918</v>
       </c>
       <c r="D21">
-        <v>9.417404269011076</v>
+        <v>9.567803191425686</v>
       </c>
       <c r="E21">
-        <v>39.62944665683369</v>
+        <v>8.070283710731536</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.019501738453226</v>
+        <v>58.75289613009681</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.883173550390122</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.727250372425745</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>16.54575977432201</v>
       </c>
       <c r="K21">
-        <v>24.8861906678786</v>
+        <v>25.41425726413116</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.327186716237079</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.95527448348389</v>
+        <v>10.68589723204466</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.8260182834799</v>
+        <v>31.62773238515053</v>
       </c>
       <c r="C22">
-        <v>19.60398290325831</v>
+        <v>19.72386464829428</v>
       </c>
       <c r="D22">
-        <v>9.825041974213903</v>
+        <v>9.773374768348422</v>
       </c>
       <c r="E22">
-        <v>41.52075807350341</v>
+        <v>8.213945906145401</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.005572485263144</v>
+        <v>60.49833295328928</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.615507815655266</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.503114828964839</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>16.8622795099789</v>
       </c>
       <c r="K22">
-        <v>25.99938531398179</v>
+        <v>25.87583101222216</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.423923531864932</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>23.37625107760926</v>
+        <v>10.95888548066868</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.17427695595938</v>
+        <v>31.05801468508433</v>
       </c>
       <c r="C23">
-        <v>19.14735091325052</v>
+        <v>19.33775649693093</v>
       </c>
       <c r="D23">
-        <v>9.60796027828081</v>
+        <v>9.667231219846084</v>
       </c>
       <c r="E23">
-        <v>40.51026557045231</v>
+        <v>8.141795453401414</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.013041674219156</v>
+        <v>59.70091836824973</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.756224589953775</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.609343650280204</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>16.72262969230245</v>
       </c>
       <c r="K23">
-        <v>25.40607730566772</v>
+        <v>25.69100178984239</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.372823957044597</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>23.15058547829631</v>
+        <v>10.80992284932414</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.68006284421001</v>
+        <v>28.81070449265516</v>
       </c>
       <c r="C24">
-        <v>17.40645549843426</v>
+        <v>17.8630423622235</v>
       </c>
       <c r="D24">
-        <v>8.773399927581979</v>
+        <v>9.253884629644254</v>
       </c>
       <c r="E24">
-        <v>36.69185163002557</v>
+        <v>7.857459099873436</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.040683849120622</v>
+        <v>56.41096246932966</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.299516177768094</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.041551996105397</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>16.14643475173954</v>
       </c>
       <c r="K24">
-        <v>23.13520996703453</v>
+        <v>24.89230227586704</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.176170401558316</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.31550264877225</v>
+        <v>10.23803190118553</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.90295065812878</v>
+        <v>26.19423817310313</v>
       </c>
       <c r="C25">
-        <v>15.47826120865854</v>
+        <v>16.15859758038082</v>
       </c>
       <c r="D25">
-        <v>7.836921658358903</v>
+        <v>8.796349058569234</v>
       </c>
       <c r="E25">
-        <v>32.51386663338076</v>
+        <v>7.54142816446419</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.069762604784505</v>
+        <v>52.74362383397859</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.903517330165024</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.525203526281922</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>15.52602600923629</v>
       </c>
       <c r="K25">
-        <v>20.60438404486693</v>
+        <v>24.03376526797053</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>4.958022517824086</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.44629543683405</v>
+        <v>9.592495579447618</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.10058494267915</v>
+        <v>24.07319209272668</v>
       </c>
       <c r="C2">
-        <v>14.7272215421214</v>
+        <v>15.77410155431284</v>
       </c>
       <c r="D2">
-        <v>8.459856370974352</v>
+        <v>8.350913511719408</v>
       </c>
       <c r="E2">
-        <v>7.311661951886693</v>
+        <v>7.199895555561921</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>50.3214548159938</v>
+        <v>44.1531096864542</v>
       </c>
       <c r="H2">
-        <v>3.360957529256638</v>
+        <v>3.15706456697963</v>
       </c>
       <c r="I2">
-        <v>3.871242328773289</v>
+        <v>3.633722099347918</v>
       </c>
       <c r="J2">
-        <v>15.14903244293776</v>
+        <v>13.9774316560481</v>
       </c>
       <c r="K2">
-        <v>23.56666330748807</v>
+        <v>20.75430786543467</v>
       </c>
       <c r="L2">
-        <v>4.792675701464679</v>
+        <v>16.40690219394688</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.42225091716965</v>
       </c>
       <c r="N2">
-        <v>9.083243595895512</v>
+        <v>4.805050630319297</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>9.372889948948483</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.57803802020789</v>
+        <v>22.53292819694784</v>
       </c>
       <c r="C3">
-        <v>13.7327437416501</v>
+        <v>14.66613167932562</v>
       </c>
       <c r="D3">
-        <v>8.222369601325664</v>
+        <v>8.134933977382079</v>
       </c>
       <c r="E3">
-        <v>7.143815705958209</v>
+        <v>7.066115067789651</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>48.42650438091605</v>
+        <v>42.88153642879775</v>
       </c>
       <c r="H3">
-        <v>3.685598838565803</v>
+        <v>3.447681345924541</v>
       </c>
       <c r="I3">
-        <v>4.130231246213999</v>
+        <v>3.855976172846791</v>
       </c>
       <c r="J3">
-        <v>14.85164159109129</v>
+        <v>13.74700581011662</v>
       </c>
       <c r="K3">
-        <v>23.16106769240812</v>
+        <v>20.60448299734488</v>
       </c>
       <c r="L3">
-        <v>4.675894357850151</v>
+        <v>16.38676295622468</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.2315250390477</v>
       </c>
       <c r="N3">
-        <v>8.730921375560275</v>
+        <v>4.695997083549956</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>9.012884177196177</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.59228400429907</v>
+        <v>21.53317244408093</v>
       </c>
       <c r="C4">
-        <v>13.09134832255887</v>
+        <v>13.94975631315128</v>
       </c>
       <c r="D4">
-        <v>8.074538616320512</v>
+        <v>8.00084985079196</v>
       </c>
       <c r="E4">
-        <v>7.037687464811672</v>
+        <v>6.981495025438091</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>47.23429827752523</v>
+        <v>42.09029961822473</v>
       </c>
       <c r="H4">
-        <v>3.891199412742052</v>
+        <v>3.631958211309764</v>
       </c>
       <c r="I4">
-        <v>4.294674337532475</v>
+        <v>3.997522548325231</v>
       </c>
       <c r="J4">
-        <v>14.66870696370228</v>
+        <v>13.60269548526029</v>
       </c>
       <c r="K4">
-        <v>22.91025081246582</v>
+        <v>20.51220396790125</v>
       </c>
       <c r="L4">
-        <v>4.602059364768155</v>
+        <v>16.36803431602065</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.13188441149787</v>
       </c>
       <c r="N4">
-        <v>8.508775222386859</v>
+        <v>4.627054404778584</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>8.786040278787452</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.17800440906152</v>
+        <v>21.11231718531017</v>
       </c>
       <c r="C5">
-        <v>12.8312897902778</v>
+        <v>13.65693455204056</v>
       </c>
       <c r="D5">
-        <v>8.012848506551986</v>
+        <v>7.945040313272228</v>
       </c>
       <c r="E5">
-        <v>6.992376835804117</v>
+        <v>6.94534759119228</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>46.70006921264211</v>
+        <v>41.72993204978816</v>
       </c>
       <c r="H5">
-        <v>3.977147912258892</v>
+        <v>3.709021971878357</v>
       </c>
       <c r="I5">
-        <v>4.36563513170764</v>
+        <v>4.059413356487513</v>
       </c>
       <c r="J5">
-        <v>14.58563327406555</v>
+        <v>13.53593571736265</v>
       </c>
       <c r="K5">
-        <v>22.79007951852649</v>
+        <v>20.46026229826915</v>
       </c>
       <c r="L5">
-        <v>4.571269225765262</v>
+        <v>16.3467123125859</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.08626545637883</v>
       </c>
       <c r="N5">
-        <v>8.418100353415449</v>
+        <v>4.598366058489983</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>8.693294475354113</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.10862226887228</v>
+        <v>21.04173973609855</v>
       </c>
       <c r="C6">
-        <v>12.79877335702511</v>
+        <v>13.6178246773437</v>
       </c>
       <c r="D6">
-        <v>8.001355418887652</v>
+        <v>7.934711769447859</v>
       </c>
       <c r="E6">
-        <v>6.983236207206364</v>
+        <v>6.938043524064465</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>46.55994805270882</v>
+        <v>41.62650093878841</v>
       </c>
       <c r="H6">
-        <v>3.992186205552229</v>
+        <v>3.72248235120517</v>
       </c>
       <c r="I6">
-        <v>4.38075627779119</v>
+        <v>4.073495564801881</v>
       </c>
       <c r="J6">
-        <v>14.56145929873868</v>
+        <v>13.51592031257568</v>
       </c>
       <c r="K6">
-        <v>22.74864070357101</v>
+        <v>20.43423994050665</v>
       </c>
       <c r="L6">
-        <v>4.565938254200245</v>
+        <v>16.32833623467443</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.0674002357808</v>
       </c>
       <c r="N6">
-        <v>8.404467166168478</v>
+        <v>4.593468102609376</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>8.67910653341492</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.58717373149663</v>
+        <v>21.52799837946187</v>
       </c>
       <c r="C7">
-        <v>13.11751455810649</v>
+        <v>13.95991744410984</v>
       </c>
       <c r="D7">
-        <v>8.07040128007919</v>
+        <v>7.99802566147784</v>
       </c>
       <c r="E7">
-        <v>7.032835342338005</v>
+        <v>6.977853416548934</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>47.08953092934492</v>
+        <v>42.01318505094932</v>
       </c>
       <c r="H7">
-        <v>3.894152881294721</v>
+        <v>3.635508432697682</v>
       </c>
       <c r="I7">
-        <v>4.304282777543638</v>
+        <v>4.009113302000829</v>
       </c>
       <c r="J7">
-        <v>14.63943620171545</v>
+        <v>13.51620277846863</v>
       </c>
       <c r="K7">
-        <v>22.85035292075003</v>
+        <v>20.44150879384602</v>
       </c>
       <c r="L7">
-        <v>4.601155168998663</v>
+        <v>16.30914615344149</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.08389916400063</v>
       </c>
       <c r="N7">
-        <v>8.511611833758632</v>
+        <v>4.625830204894129</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>8.786395324101187</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.58657570767645</v>
+        <v>23.55388161182791</v>
       </c>
       <c r="C8">
-        <v>14.42668503084587</v>
+        <v>15.39320584588262</v>
       </c>
       <c r="D8">
-        <v>8.374213441948648</v>
+        <v>8.27567827926946</v>
       </c>
       <c r="E8">
-        <v>7.248996853873684</v>
+        <v>7.150901565804695</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>49.5004852571281</v>
+        <v>43.71428290453156</v>
       </c>
       <c r="H8">
-        <v>3.473901433554193</v>
+        <v>3.261046440463166</v>
       </c>
       <c r="I8">
-        <v>3.970590298127195</v>
+        <v>3.724758514165326</v>
       </c>
       <c r="J8">
-        <v>15.01029242775996</v>
+        <v>13.66883874541679</v>
       </c>
       <c r="K8">
-        <v>23.35179519689073</v>
+        <v>20.56779558607407</v>
       </c>
       <c r="L8">
-        <v>4.752248372062221</v>
+        <v>16.29281113714571</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.25660948330101</v>
       </c>
       <c r="N8">
-        <v>8.968146729806248</v>
+        <v>4.76575036905111</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>9.24845318686428</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.10130806858269</v>
+        <v>27.09671064487161</v>
       </c>
       <c r="C9">
-        <v>16.70554311365996</v>
+        <v>17.92447192793095</v>
       </c>
       <c r="D9">
-        <v>8.957255239142018</v>
+        <v>8.808257239347455</v>
       </c>
       <c r="E9">
-        <v>7.656145336452133</v>
+        <v>7.475751398266271</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>54.21124426948105</v>
+        <v>46.98814834098217</v>
       </c>
       <c r="H9">
-        <v>2.694556789899857</v>
+        <v>2.565422345930963</v>
       </c>
       <c r="I9">
-        <v>3.343533943907394</v>
+        <v>3.187021918013013</v>
       </c>
       <c r="J9">
-        <v>15.78166575840033</v>
+        <v>14.21015756410739</v>
       </c>
       <c r="K9">
-        <v>24.4205082188228</v>
+        <v>20.97993782971889</v>
       </c>
       <c r="L9">
-        <v>5.0330921791712</v>
+        <v>16.34551061771526</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.84776267726132</v>
       </c>
       <c r="N9">
-        <v>9.807219532436354</v>
+        <v>5.027316863318107</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>10.10590598685424</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.43553670235135</v>
+        <v>29.43836804814961</v>
       </c>
       <c r="C10">
-        <v>18.273802279363</v>
+        <v>19.57627532390313</v>
       </c>
       <c r="D10">
-        <v>9.308061993168732</v>
+        <v>9.132510099037502</v>
       </c>
       <c r="E10">
-        <v>7.874518139507508</v>
+        <v>7.647549438010561</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>56.86961162637783</v>
+        <v>49.05518238754221</v>
       </c>
       <c r="H10">
-        <v>2.182583040803883</v>
+        <v>2.116349392736574</v>
       </c>
       <c r="I10">
-        <v>2.922252634350426</v>
+        <v>2.833427840570763</v>
       </c>
       <c r="J10">
-        <v>16.20606059746792</v>
+        <v>14.16348592713326</v>
       </c>
       <c r="K10">
-        <v>24.92687725755288</v>
+        <v>20.9661348370481</v>
       </c>
       <c r="L10">
-        <v>5.238592795837784</v>
+        <v>16.11994142524933</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.1127191134672</v>
       </c>
       <c r="N10">
-        <v>10.30232296527094</v>
+        <v>5.219611512744486</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>10.60067167922324</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.43976867449184</v>
+        <v>30.44320396686354</v>
       </c>
       <c r="C11">
-        <v>19.21395283850653</v>
+        <v>20.28524603825802</v>
       </c>
       <c r="D11">
-        <v>8.925901610874314</v>
+        <v>8.774239960382697</v>
       </c>
       <c r="E11">
-        <v>7.487935509127939</v>
+        <v>7.31515232709648</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>52.96270078492052</v>
+        <v>46.31363391085855</v>
       </c>
       <c r="H11">
-        <v>3.011605566585311</v>
+        <v>2.977361811368808</v>
       </c>
       <c r="I11">
-        <v>2.834358056466325</v>
+        <v>2.768011033787777</v>
       </c>
       <c r="J11">
-        <v>15.28787352338203</v>
+        <v>12.77860220548734</v>
       </c>
       <c r="K11">
-        <v>23.01895464800319</v>
+        <v>19.20776011511351</v>
       </c>
       <c r="L11">
-        <v>5.444936511663435</v>
+        <v>14.74410566936229</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.86314587818009</v>
       </c>
       <c r="N11">
-        <v>9.758760077128356</v>
+        <v>5.439385032232623</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>10.01048611525331</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.81015917968272</v>
+        <v>30.81373763055679</v>
       </c>
       <c r="C12">
-        <v>19.65835532266102</v>
+        <v>20.55078056898188</v>
       </c>
       <c r="D12">
-        <v>8.532396845551034</v>
+        <v>8.40251963240857</v>
       </c>
       <c r="E12">
-        <v>7.241987697918409</v>
+        <v>7.116290937024691</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>49.24524473673754</v>
+        <v>43.53121077791941</v>
       </c>
       <c r="H12">
-        <v>4.31981504674615</v>
+        <v>4.296025987206684</v>
       </c>
       <c r="I12">
-        <v>2.824081391812612</v>
+        <v>2.758691812313041</v>
       </c>
       <c r="J12">
-        <v>14.46007567681493</v>
+        <v>11.88148052078353</v>
       </c>
       <c r="K12">
-        <v>21.40260103632276</v>
+        <v>17.9050444085429</v>
       </c>
       <c r="L12">
-        <v>5.632145666826097</v>
+        <v>13.78537093130409</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.8666100635114</v>
       </c>
       <c r="N12">
-        <v>9.190445966025289</v>
+        <v>5.635939181352508</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>9.409346338167072</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.72831158332855</v>
+        <v>30.73192108616924</v>
       </c>
       <c r="C13">
-        <v>19.79705672628267</v>
+        <v>20.55540872734774</v>
       </c>
       <c r="D13">
-        <v>8.097145746969398</v>
+        <v>7.988010810439188</v>
       </c>
       <c r="E13">
-        <v>7.090864981199524</v>
+        <v>7.012290436653204</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.1843464543432</v>
+        <v>40.22443121264012</v>
       </c>
       <c r="H13">
-        <v>5.722867495196932</v>
+        <v>5.698753227165029</v>
       </c>
       <c r="I13">
-        <v>2.888749868533731</v>
+        <v>2.808977819538283</v>
       </c>
       <c r="J13">
-        <v>13.60466459860812</v>
+        <v>11.35757612999591</v>
       </c>
       <c r="K13">
-        <v>19.82805275562978</v>
+        <v>16.84566981000409</v>
       </c>
       <c r="L13">
-        <v>5.810520124643801</v>
+        <v>13.04794676907419</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.99404007884549</v>
       </c>
       <c r="N13">
-        <v>8.565275837701522</v>
+        <v>5.824489075708494</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>8.762244846981696</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.46591408929093</v>
+        <v>30.46919737731922</v>
       </c>
       <c r="C14">
-        <v>19.76592394661687</v>
+        <v>20.44664489221779</v>
       </c>
       <c r="D14">
-        <v>7.772296978932411</v>
+        <v>7.677654566115252</v>
       </c>
       <c r="E14">
-        <v>7.048550726147876</v>
+        <v>7.002924537712632</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>42.12374928040378</v>
+        <v>37.62858243719813</v>
       </c>
       <c r="H14">
-        <v>6.73004035961592</v>
+        <v>6.703209186515105</v>
       </c>
       <c r="I14">
-        <v>2.970492286528312</v>
+        <v>2.874563835433161</v>
       </c>
       <c r="J14">
-        <v>12.9882585584819</v>
+        <v>11.13100750708216</v>
       </c>
       <c r="K14">
-        <v>18.74762862087237</v>
+        <v>16.20710091680164</v>
       </c>
       <c r="L14">
-        <v>5.936242084626862</v>
+        <v>12.61843963373985</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.43970466534026</v>
       </c>
       <c r="N14">
-        <v>8.101290665141422</v>
+        <v>5.957690754228483</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>8.287210678076997</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.30468669824851</v>
+        <v>30.30768431087241</v>
       </c>
       <c r="C15">
-        <v>19.70167209639942</v>
+        <v>20.37029866495195</v>
       </c>
       <c r="D15">
-        <v>7.683428440009592</v>
+        <v>7.592598726163305</v>
       </c>
       <c r="E15">
-        <v>7.041192993941937</v>
+        <v>7.005191793990891</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>41.26102819503886</v>
+        <v>36.85820274719372</v>
       </c>
       <c r="H15">
-        <v>6.968951460400147</v>
+        <v>6.940180147317178</v>
       </c>
       <c r="I15">
-        <v>3.011677791686105</v>
+        <v>2.909243212551599</v>
       </c>
       <c r="J15">
-        <v>12.82417499628203</v>
+        <v>11.12789378796485</v>
       </c>
       <c r="K15">
-        <v>18.47651096441803</v>
+        <v>16.07922772036008</v>
       </c>
       <c r="L15">
-        <v>5.958425128780425</v>
+        <v>12.53675120738126</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.3181399174443</v>
       </c>
       <c r="N15">
-        <v>7.976986746601308</v>
+        <v>5.982683040369974</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>8.161933724066527</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.36647690916449</v>
+        <v>29.36713606920393</v>
       </c>
       <c r="C16">
-        <v>19.06437900937305</v>
+        <v>19.79868243795264</v>
       </c>
       <c r="D16">
-        <v>7.608995810270125</v>
+        <v>7.520557108130727</v>
       </c>
       <c r="E16">
-        <v>6.969131474318194</v>
+        <v>6.950835914067854</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>40.67364513120518</v>
+        <v>36.06873910934284</v>
       </c>
       <c r="H16">
-        <v>6.816320875984491</v>
+        <v>6.773166883640235</v>
       </c>
       <c r="I16">
-        <v>3.183614858356809</v>
+        <v>3.050622954115812</v>
       </c>
       <c r="J16">
-        <v>12.78310422910502</v>
+        <v>11.63182414921134</v>
       </c>
       <c r="K16">
-        <v>18.5334615994218</v>
+        <v>16.40895696362596</v>
       </c>
       <c r="L16">
-        <v>5.837064812585848</v>
+        <v>12.80366868801092</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.50589023778798</v>
       </c>
       <c r="N16">
-        <v>7.872350253983567</v>
+        <v>5.872106422867368</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>8.073452452207476</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.77681819280641</v>
+        <v>28.77558972838479</v>
       </c>
       <c r="C17">
-        <v>18.58158133403422</v>
+        <v>19.39572904316361</v>
       </c>
       <c r="D17">
-        <v>7.726785757747787</v>
+        <v>7.633177461287534</v>
       </c>
       <c r="E17">
-        <v>6.923133725871571</v>
+        <v>6.898780833434731</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.89574855942104</v>
+        <v>36.93871481539016</v>
       </c>
       <c r="H17">
-        <v>6.145145808359865</v>
+        <v>6.089293041427075</v>
       </c>
       <c r="I17">
-        <v>3.273159753075352</v>
+        <v>3.126136085880373</v>
       </c>
       <c r="J17">
-        <v>13.08036555316021</v>
+        <v>12.0928629274818</v>
       </c>
       <c r="K17">
-        <v>19.14098653383773</v>
+        <v>16.97961263962581</v>
       </c>
       <c r="L17">
-        <v>5.670634371051333</v>
+        <v>13.23774658887383</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.91621985957005</v>
       </c>
       <c r="N17">
-        <v>8.043315899716088</v>
+        <v>5.708673660534374</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>8.261017133154301</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43167963951012</v>
+        <v>28.4297552859458</v>
       </c>
       <c r="C18">
-        <v>18.16563206761262</v>
+        <v>19.10302740455662</v>
       </c>
       <c r="D18">
-        <v>8.028409593962644</v>
+        <v>7.920084013020872</v>
       </c>
       <c r="E18">
-        <v>6.966720398753429</v>
+        <v>6.910831582889763</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>44.9156764924481</v>
+        <v>39.32232670654391</v>
       </c>
       <c r="H18">
-        <v>4.991078439733874</v>
+        <v>4.92071339250749</v>
       </c>
       <c r="I18">
-        <v>3.2884738386715</v>
+        <v>3.137821658658284</v>
       </c>
       <c r="J18">
-        <v>13.72845294907674</v>
+        <v>12.69440109685581</v>
       </c>
       <c r="K18">
-        <v>20.36519208912321</v>
+        <v>17.92481439858255</v>
       </c>
       <c r="L18">
-        <v>5.468005217786859</v>
+        <v>13.94838990245781</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.63205039414525</v>
       </c>
       <c r="N18">
-        <v>8.474665662924165</v>
+        <v>5.501973472173219</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>8.714973082203297</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.3129493474018</v>
+        <v>28.31159812188532</v>
       </c>
       <c r="C19">
-        <v>17.88752131414664</v>
+        <v>18.97450769211304</v>
       </c>
       <c r="D19">
-        <v>8.453332235896163</v>
+        <v>8.323475093424522</v>
       </c>
       <c r="E19">
-        <v>7.177853577779712</v>
+        <v>7.068294889707159</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>48.92582309791212</v>
+        <v>42.50929950469537</v>
       </c>
       <c r="H19">
-        <v>3.66406943188475</v>
+        <v>3.576204717508609</v>
       </c>
       <c r="I19">
-        <v>3.257102254883078</v>
+        <v>3.115408118434522</v>
       </c>
       <c r="J19">
-        <v>14.57566182480557</v>
+        <v>13.37732894604742</v>
       </c>
       <c r="K19">
-        <v>21.95491666516997</v>
+        <v>19.08892328130504</v>
       </c>
       <c r="L19">
-        <v>5.288990986968848</v>
+        <v>14.82091077114341</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.52636914454895</v>
       </c>
       <c r="N19">
-        <v>9.094200529627626</v>
+        <v>5.310476621762239</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>9.360759980978608</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.83936672575437</v>
+        <v>28.84108347307506</v>
       </c>
       <c r="C20">
-        <v>17.94306236286506</v>
+        <v>19.25178024319161</v>
       </c>
       <c r="D20">
-        <v>9.205022586927203</v>
+        <v>9.035147074041515</v>
       </c>
       <c r="E20">
-        <v>7.803287009256277</v>
+        <v>7.59001118514416</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>55.79196817122064</v>
+        <v>48.036950563193</v>
       </c>
       <c r="H20">
-        <v>2.31994250679983</v>
+        <v>2.233469676258622</v>
       </c>
       <c r="I20">
-        <v>3.063012771913788</v>
+        <v>2.958680298333745</v>
       </c>
       <c r="J20">
-        <v>16.00977088812312</v>
+        <v>14.30524171992452</v>
       </c>
       <c r="K20">
-        <v>24.61733862271083</v>
+        <v>20.90169504354496</v>
       </c>
       <c r="L20">
-        <v>5.184382996102132</v>
+        <v>16.12951994334641</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.98673080984323</v>
       </c>
       <c r="N20">
-        <v>10.18096850913558</v>
+        <v>5.171483907671806</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>10.48358771855363</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.55247943593119</v>
+        <v>30.55532518214686</v>
       </c>
       <c r="C21">
-        <v>19.0425419672918</v>
+        <v>20.26473159072696</v>
       </c>
       <c r="D21">
-        <v>9.567803191425686</v>
+        <v>9.387075030089271</v>
       </c>
       <c r="E21">
-        <v>8.070283710731536</v>
+        <v>7.815795273274348</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>58.75289613009681</v>
+        <v>51.14550368224394</v>
       </c>
       <c r="H21">
-        <v>1.883173550390122</v>
+        <v>1.861640160801963</v>
       </c>
       <c r="I21">
-        <v>2.727250372425745</v>
+        <v>2.689532387096139</v>
       </c>
       <c r="J21">
-        <v>16.54575977432201</v>
+        <v>13.40798019850252</v>
       </c>
       <c r="K21">
-        <v>25.41425726413116</v>
+        <v>20.80667038893731</v>
       </c>
       <c r="L21">
-        <v>5.327186716237079</v>
+        <v>15.89456121309643</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.13893815766477</v>
       </c>
       <c r="N21">
-        <v>10.68589723204466</v>
+        <v>5.290184840262975</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>10.96404250144106</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.62773238515053</v>
+        <v>31.62843667613984</v>
       </c>
       <c r="C22">
-        <v>19.72386464829428</v>
+        <v>20.87242906887412</v>
       </c>
       <c r="D22">
-        <v>9.773374768348422</v>
+        <v>9.588610133215948</v>
       </c>
       <c r="E22">
-        <v>8.213945906145401</v>
+        <v>7.938568990396845</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>60.49833295328928</v>
+        <v>53.10046421866024</v>
       </c>
       <c r="H22">
-        <v>1.615507815655266</v>
+        <v>1.635724704728914</v>
       </c>
       <c r="I22">
-        <v>2.503114828964839</v>
+        <v>2.515003255969617</v>
       </c>
       <c r="J22">
-        <v>16.8622795099789</v>
+        <v>12.74851186585815</v>
       </c>
       <c r="K22">
-        <v>25.87583101222216</v>
+        <v>20.68168420084203</v>
       </c>
       <c r="L22">
-        <v>5.423923531864932</v>
+        <v>15.69472634701927</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.19766596092229</v>
       </c>
       <c r="N22">
-        <v>10.95888548066868</v>
+        <v>5.372650461961039</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>11.21791608216058</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.05801468508433</v>
+        <v>31.06021357102072</v>
       </c>
       <c r="C23">
-        <v>19.33775649693093</v>
+        <v>20.55191074194074</v>
       </c>
       <c r="D23">
-        <v>9.667231219846084</v>
+        <v>9.482040073708793</v>
       </c>
       <c r="E23">
-        <v>8.141795453401414</v>
+        <v>7.875264203322605</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>59.70091836824973</v>
+        <v>52.06507273320535</v>
       </c>
       <c r="H23">
-        <v>1.756224589953775</v>
+        <v>1.752811553003486</v>
       </c>
       <c r="I23">
-        <v>2.609343650280204</v>
+        <v>2.587080995322152</v>
       </c>
       <c r="J23">
-        <v>16.72262969230245</v>
+        <v>13.25900216929817</v>
       </c>
       <c r="K23">
-        <v>25.69100178984239</v>
+        <v>20.85151883522213</v>
       </c>
       <c r="L23">
-        <v>5.372823957044597</v>
+        <v>15.87544145197978</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.2471214555107</v>
       </c>
       <c r="N23">
-        <v>10.80992284932414</v>
+        <v>5.329959786807508</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>11.08377053801737</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.81070449265516</v>
+        <v>28.81245496379112</v>
       </c>
       <c r="C24">
-        <v>17.8630423622235</v>
+        <v>19.19101675292049</v>
       </c>
       <c r="D24">
-        <v>9.253884629644254</v>
+        <v>9.080941113515365</v>
       </c>
       <c r="E24">
-        <v>7.857459099873436</v>
+        <v>7.636540113084411</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>56.41096246932966</v>
+        <v>48.53893060112917</v>
       </c>
       <c r="H24">
-        <v>2.299516177768094</v>
+        <v>2.21406662421843</v>
       </c>
       <c r="I24">
-        <v>3.041551996105397</v>
+        <v>2.934888342953958</v>
       </c>
       <c r="J24">
-        <v>16.14643475173954</v>
+        <v>14.42500862925298</v>
       </c>
       <c r="K24">
-        <v>24.89230227586704</v>
+        <v>21.11756666786474</v>
       </c>
       <c r="L24">
-        <v>5.176170401558316</v>
+        <v>16.29282972860839</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.14995337756843</v>
       </c>
       <c r="N24">
-        <v>10.23803190118553</v>
+        <v>5.160474046027915</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>10.54442575588796</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.19423817310313</v>
+        <v>26.18425655200066</v>
       </c>
       <c r="C25">
-        <v>16.15859758038082</v>
+        <v>17.32460049054052</v>
       </c>
       <c r="D25">
-        <v>8.796349058569234</v>
+        <v>8.660270577763917</v>
       </c>
       <c r="E25">
-        <v>7.54142816446419</v>
+        <v>7.383785957211993</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>52.74362383397859</v>
+        <v>45.86271223935511</v>
       </c>
       <c r="H25">
-        <v>2.903517330165024</v>
+        <v>2.75028203883473</v>
       </c>
       <c r="I25">
-        <v>3.525203526281922</v>
+        <v>3.346087717696036</v>
       </c>
       <c r="J25">
-        <v>15.52602600923629</v>
+        <v>14.10883822083994</v>
       </c>
       <c r="K25">
-        <v>24.03376526797053</v>
+        <v>20.81861479418545</v>
       </c>
       <c r="L25">
-        <v>4.958022517824086</v>
+        <v>16.2984960433538</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.6362428918579</v>
       </c>
       <c r="N25">
-        <v>9.592495579447618</v>
+        <v>4.958535738690414</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>9.88783937873154</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
